--- a/calendar-setstructure.xlsx
+++ b/calendar-setstructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GoogleDriveHoy\qimen-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C86C7-D952-43A0-8BC1-17CF66B3A2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657B21A-82FE-4B78-82B4-BB143EF9B315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15540" xr2:uid="{9EE476C3-8F16-49A3-8906-57B60EA38D61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9EE476C3-8F16-49A3-8906-57B60EA38D61}"/>
   </bookViews>
   <sheets>
     <sheet name="solstice_data" sheetId="3" r:id="rId1"/>
@@ -1042,7 +1042,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>干支序</t>
+    <t>甲子日差</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDF9EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1251,6 +1257,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,31 +1846,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314BE5E-5719-4B93-B6E1-01A85C986A31}">
   <dimension ref="A1:W285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2:V150"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.85546875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="14.85546875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="17.42578125" style="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.28515625" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.42578125" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="5.5703125" style="18" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.7109375" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.42578125" style="20" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="3" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1906,17 +1916,17 @@
       <c r="P1" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U1" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="W1" t="s">
         <v>331</v>
-      </c>
-      <c r="V1" t="s">
-        <v>333</v>
-      </c>
-      <c r="W1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1988,24 +1998,24 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <f>_xlfn.IFS(R2="", "", R2=0, "甲子", R2=15, "己卯", R2=30, "甲午",R2=45, "己酉")</f>
-        <v/>
-      </c>
-      <c r="T2" s="22">
+        <f t="shared" ref="S2:S66" si="10">_xlfn.IFS(R2="", "", R2=0, "甲子", R2=15, "己卯", R2=30, "甲午",R2=45, "己酉")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>_xlfn.IFS(L2 &lt;&gt; "", 1, O2&lt;&gt;"",2,S2&lt;&gt;"", 3)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
         <f>VALUE(J2&amp;M2&amp;Q2)</f>
         <v>352</v>
       </c>
-      <c r="U2" t="str">
-        <f>L2&amp;O2&amp;S2</f>
+      <c r="V2" s="21">
+        <f>IFERROR(MOD(U2-$I$1, 60), "")</f>
+        <v>0</v>
+      </c>
+      <c r="W2" t="str">
+        <f>_xlfn.IFS(V2="", "", V2=0, "甲子", V2=15, "己卯", V2=30, "甲午", V2=45, "己酉")</f>
         <v>甲子</v>
-      </c>
-      <c r="V2" t="str">
-        <f>K2&amp;N2&amp;R2</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>_xlfn.IFS(L2 &lt;&gt; "", 1, O2&lt;&gt;"",2,S2&lt;&gt;"", 3)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -2034,7 +2044,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G66" si="10">$I$1+F3*15</f>
+        <f t="shared" ref="G3:G66" si="11">$I$1+F3*15</f>
         <v>892</v>
       </c>
       <c r="H3" s="18">
@@ -2045,11 +2055,11 @@
         <v>1902</v>
       </c>
       <c r="J3" s="20" t="str">
-        <f t="shared" ref="J3:J66" si="11">IF(AND(M3="",P3=""), C3, "")</f>
+        <f t="shared" ref="J3:J66" si="12">IF(AND(M3="",P3=""), C3, "")</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="12">IFERROR(MOD(J3-$I$1, 60), "")</f>
+        <f t="shared" ref="K3:K66" si="13">IFERROR(MOD(J3-$I$1, 60), "")</f>
         <v/>
       </c>
       <c r="L3" t="str">
@@ -2081,24 +2091,24 @@
         <v/>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S66" si="13">_xlfn.IFS(R3="", "", R3=0, "甲子", R3=15, "己卯", R3=30, "甲午",R3=45, "己酉")</f>
-        <v/>
-      </c>
-      <c r="T3" s="22">
-        <f t="shared" ref="T3:T66" si="14">VALUE(J3&amp;M3&amp;Q3)</f>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="14">_xlfn.IFS(L3 &lt;&gt; "", 1, O3&lt;&gt;"",2,S3&lt;&gt;"", 3)</f>
+        <v>2</v>
+      </c>
+      <c r="U3" s="22">
+        <f>IF(T2=1, U2+360, U2+375)</f>
         <v>712</v>
       </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U66" si="15">L3&amp;O3&amp;S3</f>
+      <c r="V3" s="21">
+        <f t="shared" ref="V3:V66" si="15">IFERROR(MOD(U3-$I$1, 60), "")</f>
+        <v>0</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W66" si="16">_xlfn.IFS(V3="", "", V3=0, "甲子", V3=15, "己卯", V3=30, "甲午", V3=45, "己酉")</f>
         <v>甲子</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V66" si="16">K3&amp;N3&amp;R3</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W66" si="17">_xlfn.IFS(L3 &lt;&gt; "", 1, O3&lt;&gt;"",2,S3&lt;&gt;"", 3)</f>
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2110,7 +2120,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="23">
         <f t="shared" si="1"/>
         <v>1087</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1267</v>
       </c>
       <c r="H4" s="18">
@@ -2138,11 +2148,11 @@
         <v>1903</v>
       </c>
       <c r="J4" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1087</v>
       </c>
       <c r="K4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L4" t="str">
@@ -2154,11 +2164,11 @@
         <v/>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="18">IFERROR(MOD(M4-$I$1, 60), "")</f>
+        <f t="shared" ref="N4:N67" si="17">IFERROR(MOD(M4-$I$1, 60), "")</f>
         <v/>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O67" si="19">_xlfn.IFS(N4="", "", N4=0, "甲子", N4=15, "己卯", N4=30, "甲午", N4=45, "己酉")</f>
+        <f t="shared" ref="O4:O67" si="18">_xlfn.IFS(N4="", "", N4=0, "甲子", N4=15, "己卯", N4=30, "甲午", N4=45, "己酉")</f>
         <v/>
       </c>
       <c r="P4" s="20" t="str">
@@ -2174,24 +2184,24 @@
         <v/>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T4" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T4">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="22">
+        <f t="shared" ref="U4:U67" si="19">IF(T3=1, U3+360, U3+375)</f>
         <v>1087</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2220,7 +2230,7 @@
         <v>85</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1627</v>
       </c>
       <c r="H5" s="18">
@@ -2231,11 +2241,11 @@
         <v>1904</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1447</v>
       </c>
       <c r="K5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L5" t="str">
@@ -2247,11 +2257,11 @@
         <v/>
       </c>
       <c r="N5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P5" s="20" t="str">
@@ -2267,24 +2277,24 @@
         <v/>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T5" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T5">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="22">
+        <f t="shared" si="19"/>
         <v>1447</v>
       </c>
-      <c r="U5" t="str">
+      <c r="V5" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -2313,7 +2323,7 @@
         <v>109</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1987</v>
       </c>
       <c r="H6" s="18">
@@ -2324,11 +2334,11 @@
         <v>1905</v>
       </c>
       <c r="J6" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L6" t="str">
@@ -2340,11 +2350,11 @@
         <v>1807</v>
       </c>
       <c r="N6">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="19"/>
         <v>己卯</v>
       </c>
       <c r="P6" s="20" t="str">
@@ -2360,24 +2370,24 @@
         <v/>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T6" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T6">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" si="19"/>
         <v>1807</v>
       </c>
-      <c r="U6" t="str">
+      <c r="V6" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2406,7 +2416,7 @@
         <v>134</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2362</v>
       </c>
       <c r="H7" s="18">
@@ -2417,11 +2427,11 @@
         <v>1906</v>
       </c>
       <c r="J7" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2182</v>
       </c>
       <c r="K7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L7" t="str">
@@ -2433,11 +2443,11 @@
         <v/>
       </c>
       <c r="N7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P7" s="20" t="str">
@@ -2453,24 +2463,24 @@
         <v/>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T7" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T7">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="19"/>
         <v>2182</v>
       </c>
-      <c r="U7" t="str">
+      <c r="V7" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2499,7 +2509,7 @@
         <v>158</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2722</v>
       </c>
       <c r="H8" s="18">
@@ -2510,11 +2520,11 @@
         <v>1907</v>
       </c>
       <c r="J8" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2542</v>
       </c>
       <c r="K8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L8" t="str">
@@ -2526,11 +2536,11 @@
         <v/>
       </c>
       <c r="N8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P8" s="20" t="str">
@@ -2546,24 +2556,24 @@
         <v/>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T8" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T8">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="19"/>
         <v>2542</v>
       </c>
-      <c r="U8" t="str">
+      <c r="V8" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2592,7 +2602,7 @@
         <v>182</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3082</v>
       </c>
       <c r="H9" s="18">
@@ -2603,11 +2613,11 @@
         <v>1908</v>
       </c>
       <c r="J9" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L9" t="str">
@@ -2619,11 +2629,11 @@
         <v>2902</v>
       </c>
       <c r="N9">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="19"/>
         <v>甲午</v>
       </c>
       <c r="P9" s="20" t="str">
@@ -2639,24 +2649,24 @@
         <v/>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T9" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T9">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="19"/>
         <v>2902</v>
       </c>
-      <c r="U9" t="str">
+      <c r="V9" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2685,7 +2695,7 @@
         <v>207</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3457</v>
       </c>
       <c r="H10" s="18">
@@ -2696,11 +2706,11 @@
         <v>1909</v>
       </c>
       <c r="J10" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3277</v>
       </c>
       <c r="K10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L10" t="str">
@@ -2712,11 +2722,11 @@
         <v/>
       </c>
       <c r="N10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P10" s="20" t="str">
@@ -2732,24 +2742,24 @@
         <v/>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T10" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T10">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="19"/>
         <v>3277</v>
       </c>
-      <c r="U10" t="str">
+      <c r="V10" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V10" t="str">
+        <v>45</v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2778,7 +2788,7 @@
         <v>231</v>
       </c>
       <c r="G11" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3817</v>
       </c>
       <c r="H11" s="18">
@@ -2789,11 +2799,11 @@
         <v>1910</v>
       </c>
       <c r="J11" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L11" t="str">
@@ -2805,11 +2815,11 @@
         <v/>
       </c>
       <c r="N11" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P11" s="20">
@@ -2825,24 +2835,24 @@
         <v>45</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>己酉</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" si="19"/>
         <v>3637</v>
       </c>
-      <c r="U11" t="str">
+      <c r="V11" s="21">
         <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="16"/>
         <v>己酉</v>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2854,7 +2864,7 @@
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="23">
         <f t="shared" si="1"/>
         <v>3997</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>255</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4177</v>
       </c>
       <c r="H12" s="18">
@@ -2882,11 +2892,11 @@
         <v>1911</v>
       </c>
       <c r="J12" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3997</v>
       </c>
       <c r="K12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L12" t="str">
@@ -2898,11 +2908,11 @@
         <v/>
       </c>
       <c r="N12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P12" s="20" t="str">
@@ -2918,24 +2928,24 @@
         <v/>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T12" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T12">
         <f t="shared" si="14"/>
-        <v>3997</v>
-      </c>
-      <c r="U12" t="str">
+        <v>1</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="19"/>
+        <v>4012</v>
+      </c>
+      <c r="V12" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V12" t="str">
+        <v>0</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>甲子</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -2964,7 +2974,7 @@
         <v>280</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4552</v>
       </c>
       <c r="H13" s="18">
@@ -2975,11 +2985,11 @@
         <v>1912</v>
       </c>
       <c r="J13" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4372</v>
       </c>
       <c r="K13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L13" t="str">
@@ -2991,11 +3001,11 @@
         <v/>
       </c>
       <c r="N13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P13" s="20" t="str">
@@ -3011,24 +3021,24 @@
         <v/>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T13" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T13">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="19"/>
         <v>4372</v>
       </c>
-      <c r="U13" t="str">
+      <c r="V13" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -3057,7 +3067,7 @@
         <v>304</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4912</v>
       </c>
       <c r="H14" s="18">
@@ -3068,11 +3078,11 @@
         <v>1913</v>
       </c>
       <c r="J14" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L14" t="str">
@@ -3084,11 +3094,11 @@
         <v/>
       </c>
       <c r="N14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P14" s="20">
@@ -3104,24 +3114,24 @@
         <v>0</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>甲子</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="19"/>
         <v>4732</v>
       </c>
-      <c r="U14" t="str">
+      <c r="V14" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3150,7 +3160,7 @@
         <v>329</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5287</v>
       </c>
       <c r="H15" s="18">
@@ -3161,11 +3171,11 @@
         <v>1914</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5092</v>
       </c>
       <c r="K15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L15" t="str">
@@ -3177,11 +3187,11 @@
         <v/>
       </c>
       <c r="N15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P15" s="20" t="str">
@@ -3197,24 +3207,24 @@
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T15" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T15">
         <f t="shared" si="14"/>
-        <v>5092</v>
-      </c>
-      <c r="U15" t="str">
+        <v>1</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="19"/>
+        <v>5107</v>
+      </c>
+      <c r="V15" s="21">
         <f t="shared" si="15"/>
-        <v>甲子</v>
-      </c>
-      <c r="V15" t="str">
+        <v>15</v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3243,7 +3253,7 @@
         <v>353</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5647</v>
       </c>
       <c r="H16" s="18">
@@ -3254,11 +3264,11 @@
         <v>1915</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5467</v>
       </c>
       <c r="K16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L16" t="str">
@@ -3270,11 +3280,11 @@
         <v/>
       </c>
       <c r="N16" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P16" s="20" t="str">
@@ -3290,24 +3300,24 @@
         <v/>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T16" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T16">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="19"/>
         <v>5467</v>
       </c>
-      <c r="U16" t="str">
+      <c r="V16" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3336,7 +3346,7 @@
         <v>377</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6007</v>
       </c>
       <c r="H17" s="18">
@@ -3347,11 +3357,11 @@
         <v>1916</v>
       </c>
       <c r="J17" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L17" t="str">
@@ -3363,11 +3373,11 @@
         <v>5827</v>
       </c>
       <c r="N17">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="19"/>
         <v>己卯</v>
       </c>
       <c r="P17" s="20" t="str">
@@ -3383,24 +3393,24 @@
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T17" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T17">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="19"/>
         <v>5827</v>
       </c>
-      <c r="U17" t="str">
+      <c r="V17" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -3429,7 +3439,7 @@
         <v>402</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6382</v>
       </c>
       <c r="H18" s="18">
@@ -3440,11 +3450,11 @@
         <v>1917</v>
       </c>
       <c r="J18" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6187</v>
       </c>
       <c r="K18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L18" t="str">
@@ -3456,11 +3466,11 @@
         <v/>
       </c>
       <c r="N18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O18" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P18" s="20" t="str">
@@ -3476,24 +3486,24 @@
         <v/>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T18" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T18">
         <f t="shared" si="14"/>
-        <v>6187</v>
-      </c>
-      <c r="U18" t="str">
+        <v>1</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="19"/>
+        <v>6202</v>
+      </c>
+      <c r="V18" s="21">
         <f t="shared" si="15"/>
-        <v>己卯</v>
-      </c>
-      <c r="V18" t="str">
+        <v>30</v>
+      </c>
+      <c r="W18" t="str">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>甲午</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -3522,7 +3532,7 @@
         <v>426</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6742</v>
       </c>
       <c r="H19" s="18">
@@ -3533,11 +3543,11 @@
         <v>1918</v>
       </c>
       <c r="J19" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6562</v>
       </c>
       <c r="K19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L19" t="str">
@@ -3549,11 +3559,11 @@
         <v/>
       </c>
       <c r="N19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P19" s="20" t="str">
@@ -3569,24 +3579,24 @@
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T19" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T19">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="19"/>
         <v>6562</v>
       </c>
-      <c r="U19" t="str">
+      <c r="V19" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V19" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -3615,7 +3625,7 @@
         <v>450</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7102</v>
       </c>
       <c r="H20" s="18">
@@ -3626,11 +3636,11 @@
         <v>1919</v>
       </c>
       <c r="J20" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L20" t="str">
@@ -3642,11 +3652,11 @@
         <v>6922</v>
       </c>
       <c r="N20">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="19"/>
         <v>甲午</v>
       </c>
       <c r="P20" s="20" t="str">
@@ -3662,24 +3672,24 @@
         <v/>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T20" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T20">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="19"/>
         <v>6922</v>
       </c>
-      <c r="U20" t="str">
+      <c r="V20" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V20" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -3708,7 +3718,7 @@
         <v>475</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7477</v>
       </c>
       <c r="H21" s="18">
@@ -3719,11 +3729,11 @@
         <v>1920</v>
       </c>
       <c r="J21" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7297</v>
       </c>
       <c r="K21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L21" t="str">
@@ -3735,11 +3745,11 @@
         <v/>
       </c>
       <c r="N21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P21" s="20" t="str">
@@ -3755,24 +3765,24 @@
         <v/>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T21" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T21">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" si="19"/>
         <v>7297</v>
       </c>
-      <c r="U21" t="str">
+      <c r="V21" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V21" t="str">
+        <v>45</v>
+      </c>
+      <c r="W21" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -3801,7 +3811,7 @@
         <v>499</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7837</v>
       </c>
       <c r="H22" s="18">
@@ -3812,11 +3822,11 @@
         <v>1921</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7657</v>
       </c>
       <c r="K22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L22" t="str">
@@ -3828,11 +3838,11 @@
         <v/>
       </c>
       <c r="N22" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P22" s="20" t="str">
@@ -3848,24 +3858,24 @@
         <v/>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T22" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T22">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" si="19"/>
         <v>7657</v>
       </c>
-      <c r="U22" t="str">
+      <c r="V22" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V22" t="str">
+        <v>45</v>
+      </c>
+      <c r="W22" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3894,7 +3904,7 @@
         <v>523</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8197</v>
       </c>
       <c r="H23" s="18">
@@ -3905,11 +3915,11 @@
         <v>1922</v>
       </c>
       <c r="J23" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L23" t="str">
@@ -3921,11 +3931,11 @@
         <v>8017</v>
       </c>
       <c r="N23">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="19"/>
         <v>己酉</v>
       </c>
       <c r="P23" s="20" t="str">
@@ -3941,24 +3951,24 @@
         <v/>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T23" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T23">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="19"/>
         <v>8017</v>
       </c>
-      <c r="U23" t="str">
+      <c r="V23" s="21">
         <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="16"/>
         <v>己酉</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -3987,7 +3997,7 @@
         <v>548</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8572</v>
       </c>
       <c r="H24" s="18">
@@ -3998,11 +4008,11 @@
         <v>1923</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8392</v>
       </c>
       <c r="K24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L24" t="str">
@@ -4014,11 +4024,11 @@
         <v/>
       </c>
       <c r="N24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P24" s="20" t="str">
@@ -4034,24 +4044,24 @@
         <v/>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T24" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T24">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="22">
+        <f t="shared" si="19"/>
         <v>8392</v>
       </c>
-      <c r="U24" t="str">
+      <c r="V24" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -4080,7 +4090,7 @@
         <v>572</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8932</v>
       </c>
       <c r="H25" s="18">
@@ -4091,11 +4101,11 @@
         <v>1924</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8752</v>
       </c>
       <c r="K25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L25" t="str">
@@ -4107,11 +4117,11 @@
         <v/>
       </c>
       <c r="N25" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P25" s="20" t="str">
@@ -4127,24 +4137,24 @@
         <v/>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T25" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T25">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="22">
+        <f t="shared" si="19"/>
         <v>8752</v>
       </c>
-      <c r="U25" t="str">
+      <c r="V25" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -4173,7 +4183,7 @@
         <v>596</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9292</v>
       </c>
       <c r="H26" s="18">
@@ -4184,11 +4194,11 @@
         <v>1925</v>
       </c>
       <c r="J26" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L26" t="str">
@@ -4200,11 +4210,11 @@
         <v>9112</v>
       </c>
       <c r="N26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="19"/>
         <v>甲子</v>
       </c>
       <c r="P26" s="20" t="str">
@@ -4220,24 +4230,24 @@
         <v/>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T26" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T26">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U26" s="22">
+        <f t="shared" si="19"/>
         <v>9112</v>
       </c>
-      <c r="U26" t="str">
+      <c r="V26" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -4266,7 +4276,7 @@
         <v>621</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9667</v>
       </c>
       <c r="H27" s="18">
@@ -4277,11 +4287,11 @@
         <v>1926</v>
       </c>
       <c r="J27" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9487</v>
       </c>
       <c r="K27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L27" t="str">
@@ -4293,11 +4303,11 @@
         <v/>
       </c>
       <c r="N27" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P27" s="20" t="str">
@@ -4313,24 +4323,24 @@
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T27" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T27">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="22">
+        <f t="shared" si="19"/>
         <v>9487</v>
       </c>
-      <c r="U27" t="str">
+      <c r="V27" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4359,7 +4369,7 @@
         <v>645</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10027</v>
       </c>
       <c r="H28" s="18">
@@ -4370,11 +4380,11 @@
         <v>1927</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9847</v>
       </c>
       <c r="K28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L28" t="str">
@@ -4386,11 +4396,11 @@
         <v/>
       </c>
       <c r="N28" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P28" s="20" t="str">
@@ -4406,24 +4416,24 @@
         <v/>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T28" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T28">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="22">
+        <f t="shared" si="19"/>
         <v>9847</v>
       </c>
-      <c r="U28" t="str">
+      <c r="V28" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4452,7 +4462,7 @@
         <v>669</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10387</v>
       </c>
       <c r="H29" s="18">
@@ -4463,11 +4473,11 @@
         <v>1928</v>
       </c>
       <c r="J29" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L29" t="str">
@@ -4479,11 +4489,11 @@
         <v>10207</v>
       </c>
       <c r="N29">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="19"/>
         <v>己卯</v>
       </c>
       <c r="P29" s="20" t="str">
@@ -4499,24 +4509,24 @@
         <v/>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T29" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T29">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U29" s="22">
+        <f t="shared" si="19"/>
         <v>10207</v>
       </c>
-      <c r="U29" t="str">
+      <c r="V29" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -4545,7 +4555,7 @@
         <v>694</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10762</v>
       </c>
       <c r="H30" s="18">
@@ -4556,11 +4566,11 @@
         <v>1929</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10582</v>
       </c>
       <c r="K30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L30" t="str">
@@ -4572,11 +4582,11 @@
         <v/>
       </c>
       <c r="N30" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P30" s="20" t="str">
@@ -4592,24 +4602,24 @@
         <v/>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T30" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T30">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="22">
+        <f t="shared" si="19"/>
         <v>10582</v>
       </c>
-      <c r="U30" t="str">
+      <c r="V30" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4638,7 +4648,7 @@
         <v>718</v>
       </c>
       <c r="G31" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11122</v>
       </c>
       <c r="H31" s="18">
@@ -4649,11 +4659,11 @@
         <v>1930</v>
       </c>
       <c r="J31" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L31" t="str">
@@ -4665,11 +4675,11 @@
         <v/>
       </c>
       <c r="N31" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P31" s="20">
@@ -4685,24 +4695,24 @@
         <v>30</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>甲午</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U31" s="22">
+        <f t="shared" si="19"/>
         <v>10942</v>
       </c>
-      <c r="U31" t="str">
+      <c r="V31" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -4731,7 +4741,7 @@
         <v>742</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11482</v>
       </c>
       <c r="H32" s="18">
@@ -4742,11 +4752,11 @@
         <v>1931</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11302</v>
       </c>
       <c r="K32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L32" t="str">
@@ -4758,11 +4768,11 @@
         <v/>
       </c>
       <c r="N32" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O32" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P32" s="20" t="str">
@@ -4778,24 +4788,24 @@
         <v/>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T32" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T32">
         <f t="shared" si="14"/>
-        <v>11302</v>
-      </c>
-      <c r="U32" t="str">
+        <v>1</v>
+      </c>
+      <c r="U32" s="22">
+        <f t="shared" si="19"/>
+        <v>11317</v>
+      </c>
+      <c r="V32" s="21">
         <f t="shared" si="15"/>
-        <v>甲午</v>
-      </c>
-      <c r="V32" t="str">
+        <v>45</v>
+      </c>
+      <c r="W32" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -4824,7 +4834,7 @@
         <v>767</v>
       </c>
       <c r="G33" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11857</v>
       </c>
       <c r="H33" s="18">
@@ -4835,11 +4845,11 @@
         <v>1932</v>
       </c>
       <c r="J33" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11677</v>
       </c>
       <c r="K33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L33" t="str">
@@ -4851,11 +4861,11 @@
         <v/>
       </c>
       <c r="N33" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O33" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P33" s="20" t="str">
@@ -4871,24 +4881,24 @@
         <v/>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T33" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T33">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="22">
+        <f t="shared" si="19"/>
         <v>11677</v>
       </c>
-      <c r="U33" t="str">
+      <c r="V33" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V33" t="str">
+        <v>45</v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4917,7 +4927,7 @@
         <v>791</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12217</v>
       </c>
       <c r="H34" s="18">
@@ -4928,11 +4938,11 @@
         <v>1933</v>
       </c>
       <c r="J34" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L34" t="str">
@@ -4944,11 +4954,11 @@
         <v/>
       </c>
       <c r="N34" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O34" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P34" s="20">
@@ -4964,24 +4974,24 @@
         <v>45</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>己酉</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U34" s="22">
+        <f t="shared" si="19"/>
         <v>12037</v>
       </c>
-      <c r="U34" t="str">
+      <c r="V34" s="21">
         <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="16"/>
         <v>己酉</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -5010,7 +5020,7 @@
         <v>816</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12592</v>
       </c>
       <c r="H35" s="18">
@@ -5021,11 +5031,11 @@
         <v>1934</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12397</v>
       </c>
       <c r="K35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L35" t="str">
@@ -5037,11 +5047,11 @@
         <v/>
       </c>
       <c r="N35" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O35" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P35" s="20" t="str">
@@ -5057,24 +5067,24 @@
         <v/>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T35" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T35">
         <f t="shared" si="14"/>
-        <v>12397</v>
-      </c>
-      <c r="U35" t="str">
+        <v>1</v>
+      </c>
+      <c r="U35" s="22">
+        <f t="shared" si="19"/>
+        <v>12412</v>
+      </c>
+      <c r="V35" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V35" t="str">
+        <v>0</v>
+      </c>
+      <c r="W35" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>甲子</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -5103,7 +5113,7 @@
         <v>840</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12952</v>
       </c>
       <c r="H36" s="18">
@@ -5114,11 +5124,11 @@
         <v>1935</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12772</v>
       </c>
       <c r="K36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L36" t="str">
@@ -5130,11 +5140,11 @@
         <v/>
       </c>
       <c r="N36" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O36" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P36" s="20" t="str">
@@ -5150,24 +5160,24 @@
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T36" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T36">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U36" s="22">
+        <f t="shared" si="19"/>
         <v>12772</v>
       </c>
-      <c r="U36" t="str">
+      <c r="V36" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V36" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -5196,7 +5206,7 @@
         <v>864</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13312</v>
       </c>
       <c r="H37" s="18">
@@ -5207,11 +5217,11 @@
         <v>1936</v>
       </c>
       <c r="J37" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L37" t="str">
@@ -5223,11 +5233,11 @@
         <v>13132</v>
       </c>
       <c r="N37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="19"/>
         <v>甲子</v>
       </c>
       <c r="P37" s="20" t="str">
@@ -5243,24 +5253,24 @@
         <v/>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T37" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T37">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U37" s="22">
+        <f t="shared" si="19"/>
         <v>13132</v>
       </c>
-      <c r="U37" t="str">
+      <c r="V37" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -5289,7 +5299,7 @@
         <v>889</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13687</v>
       </c>
       <c r="H38" s="18">
@@ -5300,11 +5310,11 @@
         <v>1937</v>
       </c>
       <c r="J38" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13492</v>
       </c>
       <c r="K38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L38" t="str">
@@ -5316,11 +5326,11 @@
         <v/>
       </c>
       <c r="N38" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O38" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P38" s="20" t="str">
@@ -5336,24 +5346,24 @@
         <v/>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T38" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T38">
         <f t="shared" si="14"/>
-        <v>13492</v>
-      </c>
-      <c r="U38" t="str">
+        <v>1</v>
+      </c>
+      <c r="U38" s="22">
+        <f t="shared" si="19"/>
+        <v>13507</v>
+      </c>
+      <c r="V38" s="21">
         <f t="shared" si="15"/>
-        <v>甲子</v>
-      </c>
-      <c r="V38" t="str">
+        <v>15</v>
+      </c>
+      <c r="W38" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -5382,7 +5392,7 @@
         <v>913</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14047</v>
       </c>
       <c r="H39" s="18">
@@ -5393,11 +5403,11 @@
         <v>1938</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13867</v>
       </c>
       <c r="K39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L39" t="str">
@@ -5409,11 +5419,11 @@
         <v/>
       </c>
       <c r="N39" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O39" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P39" s="20" t="str">
@@ -5429,24 +5439,24 @@
         <v/>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T39" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T39">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U39" s="22">
+        <f t="shared" si="19"/>
         <v>13867</v>
       </c>
-      <c r="U39" t="str">
+      <c r="V39" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -5475,7 +5485,7 @@
         <v>937</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14407</v>
       </c>
       <c r="H40" s="18">
@@ -5486,11 +5496,11 @@
         <v>1939</v>
       </c>
       <c r="J40" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L40" t="str">
@@ -5502,11 +5512,11 @@
         <v>14227</v>
       </c>
       <c r="N40">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O40" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="19"/>
         <v>己卯</v>
       </c>
       <c r="P40" s="20" t="str">
@@ -5522,24 +5532,24 @@
         <v/>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T40" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T40">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U40" s="22">
+        <f t="shared" si="19"/>
         <v>14227</v>
       </c>
-      <c r="U40" t="str">
+      <c r="V40" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5568,7 +5578,7 @@
         <v>962</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14782</v>
       </c>
       <c r="H41" s="18">
@@ -5579,11 +5589,11 @@
         <v>1940</v>
       </c>
       <c r="J41" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14602</v>
       </c>
       <c r="K41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L41" t="str">
@@ -5595,11 +5605,11 @@
         <v/>
       </c>
       <c r="N41" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O41" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P41" s="20" t="str">
@@ -5615,24 +5625,24 @@
         <v/>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T41" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T41">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="22">
+        <f t="shared" si="19"/>
         <v>14602</v>
       </c>
-      <c r="U41" t="str">
+      <c r="V41" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -5661,7 +5671,7 @@
         <v>986</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15142</v>
       </c>
       <c r="H42" s="18">
@@ -5672,11 +5682,11 @@
         <v>1941</v>
       </c>
       <c r="J42" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14962</v>
       </c>
       <c r="K42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L42" t="str">
@@ -5688,11 +5698,11 @@
         <v/>
       </c>
       <c r="N42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O42" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P42" s="20" t="str">
@@ -5708,24 +5718,24 @@
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T42" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T42">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U42" s="22">
+        <f t="shared" si="19"/>
         <v>14962</v>
       </c>
-      <c r="U42" t="str">
+      <c r="V42" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5754,7 +5764,7 @@
         <v>1010</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15502</v>
       </c>
       <c r="H43" s="18">
@@ -5765,11 +5775,11 @@
         <v>1942</v>
       </c>
       <c r="J43" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L43" t="str">
@@ -5781,11 +5791,11 @@
         <v>15322</v>
       </c>
       <c r="N43">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="O43" t="str">
         <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="19"/>
         <v>甲午</v>
       </c>
       <c r="P43" s="20" t="str">
@@ -5801,24 +5811,24 @@
         <v/>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T43" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T43">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U43" s="22">
+        <f t="shared" si="19"/>
         <v>15322</v>
       </c>
-      <c r="U43" t="str">
+      <c r="V43" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5847,7 +5857,7 @@
         <v>1035</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15877</v>
       </c>
       <c r="H44" s="18">
@@ -5858,11 +5868,11 @@
         <v>1943</v>
       </c>
       <c r="J44" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15697</v>
       </c>
       <c r="K44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L44" t="str">
@@ -5874,11 +5884,11 @@
         <v/>
       </c>
       <c r="N44" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O44" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P44" s="20" t="str">
@@ -5894,24 +5904,24 @@
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T44" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T44">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="22">
+        <f t="shared" si="19"/>
         <v>15697</v>
       </c>
-      <c r="U44" t="str">
+      <c r="V44" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V44" t="str">
+        <v>45</v>
+      </c>
+      <c r="W44" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5940,7 +5950,7 @@
         <v>1059</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16237</v>
       </c>
       <c r="H45" s="18">
@@ -5951,11 +5961,11 @@
         <v>1944</v>
       </c>
       <c r="J45" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16057</v>
       </c>
       <c r="K45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L45" t="str">
@@ -5967,11 +5977,11 @@
         <v/>
       </c>
       <c r="N45" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O45" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P45" s="20" t="str">
@@ -5987,24 +5997,24 @@
         <v/>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T45" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T45">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U45" s="22">
+        <f t="shared" si="19"/>
         <v>16057</v>
       </c>
-      <c r="U45" t="str">
+      <c r="V45" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V45" t="str">
+        <v>45</v>
+      </c>
+      <c r="W45" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -6033,7 +6043,7 @@
         <v>1083</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16597</v>
       </c>
       <c r="H46" s="18">
@@ -6044,11 +6054,11 @@
         <v>1945</v>
       </c>
       <c r="J46" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L46" t="str">
@@ -6060,11 +6070,11 @@
         <v>16417</v>
       </c>
       <c r="N46">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="O46" t="str">
         <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="19"/>
         <v>己酉</v>
       </c>
       <c r="P46" s="20" t="str">
@@ -6080,24 +6090,24 @@
         <v/>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T46" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T46">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U46" s="22">
+        <f t="shared" si="19"/>
         <v>16417</v>
       </c>
-      <c r="U46" t="str">
+      <c r="V46" s="21">
         <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="16"/>
         <v>己酉</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -6126,7 +6136,7 @@
         <v>1108</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16972</v>
       </c>
       <c r="H47" s="18">
@@ -6137,11 +6147,11 @@
         <v>1946</v>
       </c>
       <c r="J47" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16792</v>
       </c>
       <c r="K47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L47" t="str">
@@ -6153,11 +6163,11 @@
         <v/>
       </c>
       <c r="N47" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O47" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P47" s="20" t="str">
@@ -6173,24 +6183,24 @@
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T47" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T47">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="22">
+        <f t="shared" si="19"/>
         <v>16792</v>
       </c>
-      <c r="U47" t="str">
+      <c r="V47" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -6219,7 +6229,7 @@
         <v>1132</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17332</v>
       </c>
       <c r="H48" s="18">
@@ -6230,11 +6240,11 @@
         <v>1947</v>
       </c>
       <c r="J48" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17152</v>
       </c>
       <c r="K48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L48" t="str">
@@ -6246,11 +6256,11 @@
         <v/>
       </c>
       <c r="N48" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O48" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P48" s="20" t="str">
@@ -6266,24 +6276,24 @@
         <v/>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T48" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T48">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U48" s="22">
+        <f t="shared" si="19"/>
         <v>17152</v>
       </c>
-      <c r="U48" t="str">
+      <c r="V48" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -6312,7 +6322,7 @@
         <v>1156</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17692</v>
       </c>
       <c r="H49" s="18">
@@ -6323,11 +6333,11 @@
         <v>1948</v>
       </c>
       <c r="J49" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L49" t="str">
@@ -6339,11 +6349,11 @@
         <v>17512</v>
       </c>
       <c r="N49">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O49" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="19"/>
         <v>甲子</v>
       </c>
       <c r="P49" s="20" t="str">
@@ -6359,24 +6369,24 @@
         <v/>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T49" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T49">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U49" s="22">
+        <f t="shared" si="19"/>
         <v>17512</v>
       </c>
-      <c r="U49" t="str">
+      <c r="V49" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -6405,7 +6415,7 @@
         <v>1181</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18067</v>
       </c>
       <c r="H50" s="18">
@@ -6416,11 +6426,11 @@
         <v>1949</v>
       </c>
       <c r="J50" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17887</v>
       </c>
       <c r="K50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L50" t="str">
@@ -6432,11 +6442,11 @@
         <v/>
       </c>
       <c r="N50" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O50" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P50" s="20" t="str">
@@ -6452,24 +6462,24 @@
         <v/>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T50" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T50">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U50" s="22">
+        <f t="shared" si="19"/>
         <v>17887</v>
       </c>
-      <c r="U50" t="str">
+      <c r="V50" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -6498,7 +6508,7 @@
         <v>1205</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18427</v>
       </c>
       <c r="H51" s="18">
@@ -6509,11 +6519,11 @@
         <v>1950</v>
       </c>
       <c r="J51" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L51" t="str">
@@ -6525,11 +6535,11 @@
         <v/>
       </c>
       <c r="N51" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O51" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P51" s="20">
@@ -6545,24 +6555,24 @@
         <v>15</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>己卯</v>
       </c>
-      <c r="T51" s="22">
+      <c r="T51">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U51" s="22">
+        <f t="shared" si="19"/>
         <v>18247</v>
       </c>
-      <c r="U51" t="str">
+      <c r="V51" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -6591,7 +6601,7 @@
         <v>1229</v>
       </c>
       <c r="G52" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18787</v>
       </c>
       <c r="H52" s="18">
@@ -6602,11 +6612,11 @@
         <v>1951</v>
       </c>
       <c r="J52" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18607</v>
       </c>
       <c r="K52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L52" t="str">
@@ -6618,11 +6628,11 @@
         <v/>
       </c>
       <c r="N52" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O52" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P52" s="20" t="str">
@@ -6638,24 +6648,24 @@
         <v/>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T52" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T52">
         <f t="shared" si="14"/>
-        <v>18607</v>
-      </c>
-      <c r="U52" t="str">
+        <v>1</v>
+      </c>
+      <c r="U52" s="22">
+        <f t="shared" si="19"/>
+        <v>18622</v>
+      </c>
+      <c r="V52" s="21">
         <f t="shared" si="15"/>
-        <v>己卯</v>
-      </c>
-      <c r="V52" t="str">
+        <v>30</v>
+      </c>
+      <c r="W52" t="str">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>甲午</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -6684,7 +6694,7 @@
         <v>1254</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19162</v>
       </c>
       <c r="H53" s="18">
@@ -6695,11 +6705,11 @@
         <v>1952</v>
       </c>
       <c r="J53" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18982</v>
       </c>
       <c r="K53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L53" t="str">
@@ -6711,11 +6721,11 @@
         <v/>
       </c>
       <c r="N53" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O53" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P53" s="20" t="str">
@@ -6731,24 +6741,24 @@
         <v/>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T53" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T53">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U53" s="22">
+        <f t="shared" si="19"/>
         <v>18982</v>
       </c>
-      <c r="U53" t="str">
+      <c r="V53" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V53" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W53">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -6777,7 +6787,7 @@
         <v>1278</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19522</v>
       </c>
       <c r="H54" s="18">
@@ -6788,11 +6798,11 @@
         <v>1953</v>
       </c>
       <c r="J54" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L54" t="str">
@@ -6804,11 +6814,11 @@
         <v/>
       </c>
       <c r="N54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O54" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P54" s="20">
@@ -6824,24 +6834,24 @@
         <v>30</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>甲午</v>
       </c>
-      <c r="T54" s="22">
+      <c r="T54">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U54" s="22">
+        <f t="shared" si="19"/>
         <v>19342</v>
       </c>
-      <c r="U54" t="str">
+      <c r="V54" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W54">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -6870,7 +6880,7 @@
         <v>1303</v>
       </c>
       <c r="G55" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19897</v>
       </c>
       <c r="H55" s="18">
@@ -6881,11 +6891,11 @@
         <v>1954</v>
       </c>
       <c r="J55" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19702</v>
       </c>
       <c r="K55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L55" t="str">
@@ -6897,11 +6907,11 @@
         <v/>
       </c>
       <c r="N55" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O55" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P55" s="20" t="str">
@@ -6917,24 +6927,24 @@
         <v/>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T55" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T55">
         <f t="shared" si="14"/>
-        <v>19702</v>
-      </c>
-      <c r="U55" t="str">
+        <v>1</v>
+      </c>
+      <c r="U55" s="22">
+        <f t="shared" si="19"/>
+        <v>19717</v>
+      </c>
+      <c r="V55" s="21">
         <f t="shared" si="15"/>
-        <v>甲午</v>
-      </c>
-      <c r="V55" t="str">
+        <v>45</v>
+      </c>
+      <c r="W55" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W55">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -6963,7 +6973,7 @@
         <v>1327</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20257</v>
       </c>
       <c r="H56" s="18">
@@ -6974,11 +6984,11 @@
         <v>1955</v>
       </c>
       <c r="J56" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20077</v>
       </c>
       <c r="K56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L56" t="str">
@@ -6990,11 +7000,11 @@
         <v/>
       </c>
       <c r="N56" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O56" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O56" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P56" s="20" t="str">
@@ -7010,24 +7020,24 @@
         <v/>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T56" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T56">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U56" s="22">
+        <f t="shared" si="19"/>
         <v>20077</v>
       </c>
-      <c r="U56" t="str">
+      <c r="V56" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V56" t="str">
+        <v>45</v>
+      </c>
+      <c r="W56" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -7056,7 +7066,7 @@
         <v>1351</v>
       </c>
       <c r="G57" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20617</v>
       </c>
       <c r="H57" s="18">
@@ -7067,11 +7077,11 @@
         <v>1956</v>
       </c>
       <c r="J57" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L57" t="str">
@@ -7083,11 +7093,11 @@
         <v/>
       </c>
       <c r="N57" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O57" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P57" s="20">
@@ -7103,24 +7113,24 @@
         <v>45</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>己酉</v>
       </c>
-      <c r="T57" s="22">
+      <c r="T57">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="U57" s="22">
+        <f t="shared" si="19"/>
         <v>20437</v>
       </c>
-      <c r="U57" t="str">
+      <c r="V57" s="21">
         <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="16"/>
         <v>己酉</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="17"/>
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -7149,7 +7159,7 @@
         <v>1376</v>
       </c>
       <c r="G58" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20992</v>
       </c>
       <c r="H58" s="18">
@@ -7160,11 +7170,11 @@
         <v>1957</v>
       </c>
       <c r="J58" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20797</v>
       </c>
       <c r="K58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L58" t="str">
@@ -7176,11 +7186,11 @@
         <v/>
       </c>
       <c r="N58" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O58" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P58" s="20" t="str">
@@ -7196,24 +7206,24 @@
         <v/>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T58" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T58">
         <f t="shared" si="14"/>
-        <v>20797</v>
-      </c>
-      <c r="U58" t="str">
+        <v>1</v>
+      </c>
+      <c r="U58" s="22">
+        <f t="shared" si="19"/>
+        <v>20812</v>
+      </c>
+      <c r="V58" s="21">
         <f t="shared" si="15"/>
-        <v>己西</v>
-      </c>
-      <c r="V58" t="str">
+        <v>0</v>
+      </c>
+      <c r="W58" t="str">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>甲子</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -7242,7 +7252,7 @@
         <v>1400</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21352</v>
       </c>
       <c r="H59" s="18">
@@ -7253,11 +7263,11 @@
         <v>1958</v>
       </c>
       <c r="J59" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21172</v>
       </c>
       <c r="K59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L59" t="str">
@@ -7269,11 +7279,11 @@
         <v/>
       </c>
       <c r="N59" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O59" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P59" s="20" t="str">
@@ -7289,24 +7299,24 @@
         <v/>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T59" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T59">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U59" s="22">
+        <f t="shared" si="19"/>
         <v>21172</v>
       </c>
-      <c r="U59" t="str">
+      <c r="V59" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -7335,7 +7345,7 @@
         <v>1424</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21712</v>
       </c>
       <c r="H60" s="18">
@@ -7346,11 +7356,11 @@
         <v>1959</v>
       </c>
       <c r="J60" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L60" t="str">
@@ -7362,11 +7372,11 @@
         <v>21532</v>
       </c>
       <c r="N60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O60" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="19"/>
         <v>甲子</v>
       </c>
       <c r="P60" s="20" t="str">
@@ -7382,24 +7392,24 @@
         <v/>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T60" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T60">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U60" s="22">
+        <f t="shared" si="19"/>
         <v>21532</v>
       </c>
-      <c r="U60" t="str">
+      <c r="V60" s="21">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="16"/>
         <v>甲子</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -7428,7 +7438,7 @@
         <v>1449</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22087</v>
       </c>
       <c r="H61" s="18">
@@ -7439,11 +7449,11 @@
         <v>1960</v>
       </c>
       <c r="J61" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21892</v>
       </c>
       <c r="K61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L61" t="str">
@@ -7455,11 +7465,11 @@
         <v/>
       </c>
       <c r="N61" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O61" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P61" s="20" t="str">
@@ -7475,24 +7485,24 @@
         <v/>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T61" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T61">
         <f t="shared" si="14"/>
-        <v>21892</v>
-      </c>
-      <c r="U61" t="str">
+        <v>1</v>
+      </c>
+      <c r="U61" s="22">
+        <f t="shared" si="19"/>
+        <v>21907</v>
+      </c>
+      <c r="V61" s="21">
         <f t="shared" si="15"/>
-        <v>甲子</v>
-      </c>
-      <c r="V61" t="str">
+        <v>15</v>
+      </c>
+      <c r="W61" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -7521,7 +7531,7 @@
         <v>1473</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22447</v>
       </c>
       <c r="H62" s="18">
@@ -7532,11 +7542,11 @@
         <v>1961</v>
       </c>
       <c r="J62" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22267</v>
       </c>
       <c r="K62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L62" t="str">
@@ -7548,11 +7558,11 @@
         <v/>
       </c>
       <c r="N62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O62" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O62" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P62" s="20" t="str">
@@ -7568,24 +7578,24 @@
         <v/>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T62" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T62">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U62" s="22">
+        <f t="shared" si="19"/>
         <v>22267</v>
       </c>
-      <c r="U62" t="str">
+      <c r="V62" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -7614,7 +7624,7 @@
         <v>1497</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22807</v>
       </c>
       <c r="H63" s="18">
@@ -7625,11 +7635,11 @@
         <v>1962</v>
       </c>
       <c r="J63" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L63" t="str">
@@ -7641,11 +7651,11 @@
         <v>22627</v>
       </c>
       <c r="N63">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O63" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="O63" t="str">
-        <f t="shared" si="19"/>
         <v>己卯</v>
       </c>
       <c r="P63" s="20" t="str">
@@ -7661,24 +7671,24 @@
         <v/>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T63" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T63">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U63" s="22">
+        <f t="shared" si="19"/>
         <v>22627</v>
       </c>
-      <c r="U63" t="str">
+      <c r="V63" s="21">
         <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="16"/>
         <v>己卯</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -7707,7 +7717,7 @@
         <v>1522</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23182</v>
       </c>
       <c r="H64" s="18">
@@ -7718,11 +7728,11 @@
         <v>1963</v>
       </c>
       <c r="J64" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23002</v>
       </c>
       <c r="K64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L64" t="str">
@@ -7734,11 +7744,11 @@
         <v/>
       </c>
       <c r="N64" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O64" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P64" s="20" t="str">
@@ -7754,24 +7764,24 @@
         <v/>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T64" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T64">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U64" s="22">
+        <f t="shared" si="19"/>
         <v>23002</v>
       </c>
-      <c r="U64" t="str">
+      <c r="V64" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V64" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -7800,7 +7810,7 @@
         <v>1546</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23542</v>
       </c>
       <c r="H65" s="18">
@@ -7811,11 +7821,11 @@
         <v>1964</v>
       </c>
       <c r="J65" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23362</v>
       </c>
       <c r="K65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="L65" t="str">
@@ -7827,11 +7837,11 @@
         <v/>
       </c>
       <c r="N65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O65" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P65" s="20" t="str">
@@ -7847,24 +7857,24 @@
         <v/>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T65" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T65">
         <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U65" s="22">
+        <f t="shared" si="19"/>
         <v>23362</v>
       </c>
-      <c r="U65" t="str">
+      <c r="V65" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="17"/>
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -7893,7 +7903,7 @@
         <v>1570</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23902</v>
       </c>
       <c r="H66" s="18">
@@ -7904,11 +7914,11 @@
         <v>1965</v>
       </c>
       <c r="J66" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L66" t="str">
@@ -7920,11 +7930,11 @@
         <v>23722</v>
       </c>
       <c r="N66">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="O66" t="str">
         <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" si="19"/>
         <v>甲午</v>
       </c>
       <c r="P66" s="20" t="str">
@@ -7940,24 +7950,24 @@
         <v/>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T66" s="22">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T66">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U66" s="22">
+        <f t="shared" si="19"/>
         <v>23722</v>
       </c>
-      <c r="U66" t="str">
+      <c r="V66" s="21">
         <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="16"/>
         <v>甲午</v>
-      </c>
-      <c r="V66" t="str">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -8013,11 +8023,11 @@
         <v/>
       </c>
       <c r="N67" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="O67" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P67" s="20" t="str">
@@ -8036,21 +8046,21 @@
         <f t="shared" ref="S67:S130" si="39">_xlfn.IFS(R67="", "", R67=0, "甲子", R67=15, "己卯", R67=30, "甲午",R67=45, "己酉")</f>
         <v/>
       </c>
-      <c r="T67" s="22">
-        <f t="shared" ref="T67:T130" si="40">VALUE(J67&amp;M67&amp;Q67)</f>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="40">_xlfn.IFS(L67 &lt;&gt; "", 1, O67&lt;&gt;"",2,S67&lt;&gt;"", 3)</f>
+        <v>1</v>
+      </c>
+      <c r="U67" s="22">
+        <f t="shared" si="19"/>
         <v>24097</v>
       </c>
-      <c r="U67" t="str">
-        <f t="shared" ref="U67:U130" si="41">L67&amp;O67&amp;S67</f>
-        <v>己西</v>
-      </c>
-      <c r="V67" t="str">
-        <f t="shared" ref="V67:V130" si="42">K67&amp;N67&amp;R67</f>
+      <c r="V67" s="21">
+        <f t="shared" ref="V67:V130" si="41">IFERROR(MOD(U67-$I$1, 60), "")</f>
         <v>45</v>
       </c>
-      <c r="W67">
-        <f t="shared" ref="W67:W130" si="43">_xlfn.IFS(L67 &lt;&gt; "", 1, O67&lt;&gt;"",2,S67&lt;&gt;"", 3)</f>
-        <v>1</v>
+      <c r="W67" t="str">
+        <f t="shared" ref="W67:W130" si="42">_xlfn.IFS(V67="", "", V67=0, "甲子", V67=15, "己卯", V67=30, "甲午", V67=45, "己酉")</f>
+        <v>己酉</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -8106,11 +8116,11 @@
         <v/>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N131" si="44">IFERROR(MOD(M68-$I$1, 60), "")</f>
+        <f t="shared" ref="N68:N131" si="43">IFERROR(MOD(M68-$I$1, 60), "")</f>
         <v/>
       </c>
       <c r="O68" t="str">
-        <f t="shared" ref="O68:O131" si="45">_xlfn.IFS(N68="", "", N68=0, "甲子", N68=15, "己卯", N68=30, "甲午", N68=45, "己酉")</f>
+        <f t="shared" ref="O68:O131" si="44">_xlfn.IFS(N68="", "", N68=0, "甲子", N68=15, "己卯", N68=30, "甲午", N68=45, "己酉")</f>
         <v/>
       </c>
       <c r="P68" s="20" t="str">
@@ -8129,21 +8139,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T68" s="22">
+      <c r="T68">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U68" s="22">
+        <f t="shared" ref="U68:U131" si="45">IF(T67=1, U67+360, U67+375)</f>
         <v>24457</v>
       </c>
-      <c r="U68" t="str">
+      <c r="V68" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V68" t="str">
+        <v>45</v>
+      </c>
+      <c r="W68" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -8199,11 +8209,11 @@
         <v>24817</v>
       </c>
       <c r="N69">
+        <f t="shared" si="43"/>
+        <v>45</v>
+      </c>
+      <c r="O69" t="str">
         <f t="shared" si="44"/>
-        <v>45</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="45"/>
         <v>己酉</v>
       </c>
       <c r="P69" s="20" t="str">
@@ -8222,21 +8232,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T69" s="22">
+      <c r="T69">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U69" s="22">
+        <f t="shared" si="45"/>
         <v>24817</v>
       </c>
-      <c r="U69" t="str">
+      <c r="V69" s="21">
         <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="42"/>
         <v>己酉</v>
-      </c>
-      <c r="V69" t="str">
-        <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -8292,11 +8302,11 @@
         <v/>
       </c>
       <c r="N70" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O70" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P70" s="20" t="str">
@@ -8315,21 +8325,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T70" s="22">
+      <c r="T70">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U70" s="22">
+        <f t="shared" si="45"/>
         <v>25192</v>
       </c>
-      <c r="U70" t="str">
+      <c r="V70" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V70" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -8385,11 +8395,11 @@
         <v/>
       </c>
       <c r="N71" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O71" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P71" s="20">
@@ -8408,21 +8418,21 @@
         <f t="shared" si="39"/>
         <v>甲子</v>
       </c>
-      <c r="T71" s="22">
+      <c r="T71">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U71" s="22">
+        <f t="shared" si="45"/>
         <v>25552</v>
       </c>
-      <c r="U71" t="str">
+      <c r="V71" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V71" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -8478,11 +8488,11 @@
         <v/>
       </c>
       <c r="N72" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O72" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P72" s="20" t="str">
@@ -8501,21 +8511,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T72" s="22">
+      <c r="T72">
         <f t="shared" si="40"/>
-        <v>25912</v>
-      </c>
-      <c r="U72" t="str">
+        <v>1</v>
+      </c>
+      <c r="U72" s="22">
+        <f t="shared" si="45"/>
+        <v>25927</v>
+      </c>
+      <c r="V72" s="21">
         <f t="shared" si="41"/>
-        <v>甲子</v>
-      </c>
-      <c r="V72" t="str">
+        <v>15</v>
+      </c>
+      <c r="W72" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -8571,11 +8581,11 @@
         <v/>
       </c>
       <c r="N73" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O73" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P73" s="20" t="str">
@@ -8594,21 +8604,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T73" s="22">
+      <c r="T73">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U73" s="22">
+        <f t="shared" si="45"/>
         <v>26287</v>
       </c>
-      <c r="U73" t="str">
+      <c r="V73" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V73" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -8664,11 +8674,11 @@
         <v/>
       </c>
       <c r="N74" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O74" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P74" s="20">
@@ -8687,21 +8697,21 @@
         <f t="shared" si="39"/>
         <v>己卯</v>
       </c>
-      <c r="T74" s="22">
+      <c r="T74">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U74" s="22">
+        <f t="shared" si="45"/>
         <v>26647</v>
       </c>
-      <c r="U74" t="str">
+      <c r="V74" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W74" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V74" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -8757,11 +8767,11 @@
         <v/>
       </c>
       <c r="N75" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O75" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P75" s="20" t="str">
@@ -8780,21 +8790,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T75" s="22">
+      <c r="T75">
         <f t="shared" si="40"/>
-        <v>27007</v>
-      </c>
-      <c r="U75" t="str">
+        <v>1</v>
+      </c>
+      <c r="U75" s="22">
+        <f t="shared" si="45"/>
+        <v>27022</v>
+      </c>
+      <c r="V75" s="21">
         <f t="shared" si="41"/>
-        <v>己卯</v>
-      </c>
-      <c r="V75" t="str">
+        <v>30</v>
+      </c>
+      <c r="W75" t="str">
         <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>甲午</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -8850,11 +8860,11 @@
         <v/>
       </c>
       <c r="N76" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O76" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P76" s="20" t="str">
@@ -8873,21 +8883,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T76" s="22">
+      <c r="T76">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="22">
+        <f t="shared" si="45"/>
         <v>27382</v>
       </c>
-      <c r="U76" t="str">
+      <c r="V76" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V76" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -8943,11 +8953,11 @@
         <v/>
       </c>
       <c r="N77" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O77" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O77" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P77" s="20">
@@ -8966,21 +8976,21 @@
         <f t="shared" si="39"/>
         <v>甲午</v>
       </c>
-      <c r="T77" s="22">
+      <c r="T77">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U77" s="22">
+        <f t="shared" si="45"/>
         <v>27742</v>
       </c>
-      <c r="U77" t="str">
+      <c r="V77" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V77" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -9036,11 +9046,11 @@
         <v/>
       </c>
       <c r="N78" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O78" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O78" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P78" s="20" t="str">
@@ -9059,21 +9069,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T78" s="22">
+      <c r="T78">
         <f t="shared" si="40"/>
-        <v>28102</v>
-      </c>
-      <c r="U78" t="str">
+        <v>1</v>
+      </c>
+      <c r="U78" s="22">
+        <f t="shared" si="45"/>
+        <v>28117</v>
+      </c>
+      <c r="V78" s="21">
         <f t="shared" si="41"/>
-        <v>甲午</v>
-      </c>
-      <c r="V78" t="str">
+        <v>45</v>
+      </c>
+      <c r="W78" t="str">
         <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -9129,11 +9139,11 @@
         <v/>
       </c>
       <c r="N79" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O79" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O79" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P79" s="20" t="str">
@@ -9152,21 +9162,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T79" s="22">
+      <c r="T79">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U79" s="22">
+        <f t="shared" si="45"/>
         <v>28477</v>
       </c>
-      <c r="U79" t="str">
+      <c r="V79" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V79" t="str">
+        <v>45</v>
+      </c>
+      <c r="W79" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -9222,11 +9232,11 @@
         <v>28837</v>
       </c>
       <c r="N80">
+        <f t="shared" si="43"/>
+        <v>45</v>
+      </c>
+      <c r="O80" t="str">
         <f t="shared" si="44"/>
-        <v>45</v>
-      </c>
-      <c r="O80" t="str">
-        <f t="shared" si="45"/>
         <v>己酉</v>
       </c>
       <c r="P80" s="20" t="str">
@@ -9245,21 +9255,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T80" s="22">
+      <c r="T80">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U80" s="22">
+        <f t="shared" si="45"/>
         <v>28837</v>
       </c>
-      <c r="U80" t="str">
+      <c r="V80" s="21">
         <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="W80" t="str">
+        <f t="shared" si="42"/>
         <v>己酉</v>
-      </c>
-      <c r="V80" t="str">
-        <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W80">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -9315,11 +9325,11 @@
         <v/>
       </c>
       <c r="N81" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O81" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O81" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P81" s="20" t="str">
@@ -9338,21 +9348,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T81" s="22">
+      <c r="T81">
         <f t="shared" si="40"/>
-        <v>29197</v>
-      </c>
-      <c r="U81" t="str">
+        <v>1</v>
+      </c>
+      <c r="U81" s="22">
+        <f t="shared" si="45"/>
+        <v>29212</v>
+      </c>
+      <c r="V81" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V81" t="str">
+        <v>0</v>
+      </c>
+      <c r="W81" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>甲子</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -9408,11 +9418,11 @@
         <v/>
       </c>
       <c r="N82" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O82" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O82" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P82" s="20" t="str">
@@ -9431,21 +9441,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T82" s="22">
+      <c r="T82">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U82" s="22">
+        <f t="shared" si="45"/>
         <v>29572</v>
       </c>
-      <c r="U82" t="str">
+      <c r="V82" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W82" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V82" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -9501,11 +9511,11 @@
         <v>29932</v>
       </c>
       <c r="N83">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O83" t="str">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O83" t="str">
-        <f t="shared" si="45"/>
         <v>甲子</v>
       </c>
       <c r="P83" s="20" t="str">
@@ -9524,21 +9534,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T83" s="22">
+      <c r="T83">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U83" s="22">
+        <f t="shared" si="45"/>
         <v>29932</v>
       </c>
-      <c r="U83" t="str">
+      <c r="V83" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W83" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V83" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -9594,11 +9604,11 @@
         <v/>
       </c>
       <c r="N84" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O84" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O84" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P84" s="20" t="str">
@@ -9617,21 +9627,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T84" s="22">
+      <c r="T84">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U84" s="22">
+        <f t="shared" si="45"/>
         <v>30307</v>
       </c>
-      <c r="U84" t="str">
+      <c r="V84" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W84" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V84" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -9687,11 +9697,11 @@
         <v/>
       </c>
       <c r="N85" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O85" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O85" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P85" s="20" t="str">
@@ -9710,21 +9720,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T85" s="22">
+      <c r="T85">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U85" s="22">
+        <f t="shared" si="45"/>
         <v>30667</v>
       </c>
-      <c r="U85" t="str">
+      <c r="V85" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W85" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V85" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -9780,11 +9790,11 @@
         <v>31027</v>
       </c>
       <c r="N86">
+        <f t="shared" si="43"/>
+        <v>15</v>
+      </c>
+      <c r="O86" t="str">
         <f t="shared" si="44"/>
-        <v>15</v>
-      </c>
-      <c r="O86" t="str">
-        <f t="shared" si="45"/>
         <v>己卯</v>
       </c>
       <c r="P86" s="20" t="str">
@@ -9803,21 +9813,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T86" s="22">
+      <c r="T86">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U86" s="22">
+        <f t="shared" si="45"/>
         <v>31027</v>
       </c>
-      <c r="U86" t="str">
+      <c r="V86" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W86" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V86" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -9873,11 +9883,11 @@
         <v/>
       </c>
       <c r="N87" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O87" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O87" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P87" s="20" t="str">
@@ -9896,21 +9906,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T87" s="22">
+      <c r="T87">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U87" s="22">
+        <f t="shared" si="45"/>
         <v>31402</v>
       </c>
-      <c r="U87" t="str">
+      <c r="V87" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W87" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V87" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -9966,11 +9976,11 @@
         <v/>
       </c>
       <c r="N88" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O88" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O88" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P88" s="20" t="str">
@@ -9989,21 +9999,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T88" s="22">
+      <c r="T88">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U88" s="22">
+        <f t="shared" si="45"/>
         <v>31762</v>
       </c>
-      <c r="U88" t="str">
+      <c r="V88" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W88" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V88" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -10059,11 +10069,11 @@
         <v>32122</v>
       </c>
       <c r="N89">
+        <f t="shared" si="43"/>
+        <v>30</v>
+      </c>
+      <c r="O89" t="str">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="O89" t="str">
-        <f t="shared" si="45"/>
         <v>甲午</v>
       </c>
       <c r="P89" s="20" t="str">
@@ -10082,21 +10092,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T89" s="22">
+      <c r="T89">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U89" s="22">
+        <f t="shared" si="45"/>
         <v>32122</v>
       </c>
-      <c r="U89" t="str">
+      <c r="V89" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W89" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V89" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -10152,11 +10162,11 @@
         <v/>
       </c>
       <c r="N90" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O90" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O90" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P90" s="20" t="str">
@@ -10175,21 +10185,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T90" s="22">
+      <c r="T90">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U90" s="22">
+        <f t="shared" si="45"/>
         <v>32497</v>
       </c>
-      <c r="U90" t="str">
+      <c r="V90" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V90" t="str">
+        <v>45</v>
+      </c>
+      <c r="W90" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -10245,11 +10255,11 @@
         <v/>
       </c>
       <c r="N91" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O91" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O91" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P91" s="20" t="str">
@@ -10268,21 +10278,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T91" s="22">
+      <c r="T91">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U91" s="22">
+        <f t="shared" si="45"/>
         <v>32857</v>
       </c>
-      <c r="U91" t="str">
+      <c r="V91" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V91" t="str">
+        <v>45</v>
+      </c>
+      <c r="W91" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -10338,11 +10348,11 @@
         <v>33217</v>
       </c>
       <c r="N92">
+        <f t="shared" si="43"/>
+        <v>45</v>
+      </c>
+      <c r="O92" t="str">
         <f t="shared" si="44"/>
-        <v>45</v>
-      </c>
-      <c r="O92" t="str">
-        <f t="shared" si="45"/>
         <v>己酉</v>
       </c>
       <c r="P92" s="20" t="str">
@@ -10361,21 +10371,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T92" s="22">
+      <c r="T92">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U92" s="22">
+        <f t="shared" si="45"/>
         <v>33217</v>
       </c>
-      <c r="U92" t="str">
+      <c r="V92" s="21">
         <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="W92" t="str">
+        <f t="shared" si="42"/>
         <v>己酉</v>
-      </c>
-      <c r="V92" t="str">
-        <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -10431,11 +10441,11 @@
         <v/>
       </c>
       <c r="N93" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O93" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O93" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P93" s="20" t="str">
@@ -10454,21 +10464,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T93" s="22">
+      <c r="T93">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U93" s="22">
+        <f t="shared" si="45"/>
         <v>33592</v>
       </c>
-      <c r="U93" t="str">
+      <c r="V93" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W93" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V93" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -10524,11 +10534,11 @@
         <v/>
       </c>
       <c r="N94" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O94" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O94" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P94" s="20">
@@ -10547,21 +10557,21 @@
         <f t="shared" si="39"/>
         <v>甲子</v>
       </c>
-      <c r="T94" s="22">
+      <c r="T94">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U94" s="22">
+        <f t="shared" si="45"/>
         <v>33952</v>
       </c>
-      <c r="U94" t="str">
+      <c r="V94" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W94" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V94" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -10617,11 +10627,11 @@
         <v/>
       </c>
       <c r="N95" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O95" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O95" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P95" s="20" t="str">
@@ -10640,21 +10650,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T95" s="22">
+      <c r="T95">
         <f t="shared" si="40"/>
-        <v>34312</v>
-      </c>
-      <c r="U95" t="str">
+        <v>1</v>
+      </c>
+      <c r="U95" s="22">
+        <f t="shared" si="45"/>
+        <v>34327</v>
+      </c>
+      <c r="V95" s="21">
         <f t="shared" si="41"/>
-        <v>甲子</v>
-      </c>
-      <c r="V95" t="str">
+        <v>15</v>
+      </c>
+      <c r="W95" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -10710,11 +10720,11 @@
         <v/>
       </c>
       <c r="N96" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O96" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O96" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P96" s="20" t="str">
@@ -10733,21 +10743,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T96" s="22">
+      <c r="T96">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U96" s="22">
+        <f t="shared" si="45"/>
         <v>34687</v>
       </c>
-      <c r="U96" t="str">
+      <c r="V96" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W96" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V96" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -10803,11 +10813,11 @@
         <v/>
       </c>
       <c r="N97" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O97" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O97" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P97" s="20">
@@ -10826,21 +10836,21 @@
         <f t="shared" si="39"/>
         <v>己卯</v>
       </c>
-      <c r="T97" s="22">
+      <c r="T97">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U97" s="22">
+        <f t="shared" si="45"/>
         <v>35047</v>
       </c>
-      <c r="U97" t="str">
+      <c r="V97" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W97" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V97" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -10896,11 +10906,11 @@
         <v/>
       </c>
       <c r="N98" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O98" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O98" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P98" s="20" t="str">
@@ -10919,21 +10929,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T98" s="22">
+      <c r="T98">
         <f t="shared" si="40"/>
-        <v>35407</v>
-      </c>
-      <c r="U98" t="str">
+        <v>1</v>
+      </c>
+      <c r="U98" s="22">
+        <f t="shared" si="45"/>
+        <v>35422</v>
+      </c>
+      <c r="V98" s="21">
         <f t="shared" si="41"/>
-        <v>己卯</v>
-      </c>
-      <c r="V98" t="str">
+        <v>30</v>
+      </c>
+      <c r="W98" t="str">
         <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W98">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>甲午</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -10989,11 +10999,11 @@
         <v/>
       </c>
       <c r="N99" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O99" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O99" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P99" s="20" t="str">
@@ -11012,21 +11022,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T99" s="22">
+      <c r="T99">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U99" s="22">
+        <f t="shared" si="45"/>
         <v>35782</v>
       </c>
-      <c r="U99" t="str">
+      <c r="V99" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W99" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V99" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W99">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -11082,11 +11092,11 @@
         <v>36142</v>
       </c>
       <c r="N100">
+        <f t="shared" si="43"/>
+        <v>30</v>
+      </c>
+      <c r="O100" t="str">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="O100" t="str">
-        <f t="shared" si="45"/>
         <v>甲午</v>
       </c>
       <c r="P100" s="20" t="str">
@@ -11105,21 +11115,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T100" s="22">
+      <c r="T100">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U100" s="22">
+        <f t="shared" si="45"/>
         <v>36142</v>
       </c>
-      <c r="U100" t="str">
+      <c r="V100" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W100" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V100" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W100">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -11131,7 +11141,7 @@
         <f t="shared" si="47"/>
         <v>2410</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="23">
         <f t="shared" si="48"/>
         <v>36502</v>
       </c>
@@ -11175,11 +11185,11 @@
         <v/>
       </c>
       <c r="N101" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O101" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O101" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P101" s="20" t="str">
@@ -11198,21 +11208,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T101" s="22">
+      <c r="T101">
         <f t="shared" si="40"/>
-        <v>36502</v>
-      </c>
-      <c r="U101" t="str">
+        <v>1</v>
+      </c>
+      <c r="U101" s="22">
+        <f t="shared" si="45"/>
+        <v>36517</v>
+      </c>
+      <c r="V101" s="21">
         <f t="shared" si="41"/>
-        <v>甲午</v>
-      </c>
-      <c r="V101" t="str">
+        <v>45</v>
+      </c>
+      <c r="W101" t="str">
         <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W101">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -11268,11 +11278,11 @@
         <v/>
       </c>
       <c r="N102" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O102" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O102" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P102" s="20" t="str">
@@ -11291,21 +11301,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T102" s="22">
+      <c r="T102">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U102" s="22">
+        <f t="shared" si="45"/>
         <v>36877</v>
       </c>
-      <c r="U102" t="str">
+      <c r="V102" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V102" t="str">
+        <v>45</v>
+      </c>
+      <c r="W102" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W102">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
@@ -11361,11 +11371,11 @@
         <v>37237</v>
       </c>
       <c r="N103">
+        <f t="shared" si="43"/>
+        <v>45</v>
+      </c>
+      <c r="O103" t="str">
         <f t="shared" si="44"/>
-        <v>45</v>
-      </c>
-      <c r="O103" t="str">
-        <f t="shared" si="45"/>
         <v>己酉</v>
       </c>
       <c r="P103" s="20" t="str">
@@ -11384,21 +11394,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T103" s="22">
+      <c r="T103">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U103" s="22">
+        <f t="shared" si="45"/>
         <v>37237</v>
       </c>
-      <c r="U103" t="str">
+      <c r="V103" s="21">
         <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="W103" t="str">
+        <f t="shared" si="42"/>
         <v>己酉</v>
-      </c>
-      <c r="V103" t="str">
-        <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W103">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
@@ -11454,11 +11464,11 @@
         <v/>
       </c>
       <c r="N104" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O104" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O104" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P104" s="20" t="str">
@@ -11477,21 +11487,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T104" s="22">
+      <c r="T104">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U104" s="22">
+        <f t="shared" si="45"/>
         <v>37612</v>
       </c>
-      <c r="U104" t="str">
+      <c r="V104" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W104" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V104" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
@@ -11547,11 +11557,11 @@
         <v/>
       </c>
       <c r="N105" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O105" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O105" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P105" s="20" t="str">
@@ -11570,21 +11580,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T105" s="22">
+      <c r="T105">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U105" s="22">
+        <f t="shared" si="45"/>
         <v>37972</v>
       </c>
-      <c r="U105" t="str">
+      <c r="V105" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W105" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V105" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
@@ -11640,11 +11650,11 @@
         <v>38332</v>
       </c>
       <c r="N106">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O106" t="str">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O106" t="str">
-        <f t="shared" si="45"/>
         <v>甲子</v>
       </c>
       <c r="P106" s="20" t="str">
@@ -11663,21 +11673,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T106" s="22">
+      <c r="T106">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U106" s="22">
+        <f t="shared" si="45"/>
         <v>38332</v>
       </c>
-      <c r="U106" t="str">
+      <c r="V106" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W106" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V106" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
@@ -11733,11 +11743,11 @@
         <v/>
       </c>
       <c r="N107" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O107" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O107" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P107" s="20" t="str">
@@ -11756,21 +11766,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T107" s="22">
+      <c r="T107">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U107" s="22">
+        <f t="shared" si="45"/>
         <v>38707</v>
       </c>
-      <c r="U107" t="str">
+      <c r="V107" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W107" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V107" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W107">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
@@ -11826,11 +11836,11 @@
         <v/>
       </c>
       <c r="N108" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O108" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O108" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P108" s="20" t="str">
@@ -11849,21 +11859,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T108" s="22">
+      <c r="T108">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U108" s="22">
+        <f t="shared" si="45"/>
         <v>39067</v>
       </c>
-      <c r="U108" t="str">
+      <c r="V108" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W108" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V108" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W108">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
@@ -11919,11 +11929,11 @@
         <v>39427</v>
       </c>
       <c r="N109">
+        <f t="shared" si="43"/>
+        <v>15</v>
+      </c>
+      <c r="O109" t="str">
         <f t="shared" si="44"/>
-        <v>15</v>
-      </c>
-      <c r="O109" t="str">
-        <f t="shared" si="45"/>
         <v>己卯</v>
       </c>
       <c r="P109" s="20" t="str">
@@ -11942,21 +11952,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T109" s="22">
+      <c r="T109">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U109" s="22">
+        <f t="shared" si="45"/>
         <v>39427</v>
       </c>
-      <c r="U109" t="str">
+      <c r="V109" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W109" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V109" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W109">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
@@ -12012,11 +12022,11 @@
         <v/>
       </c>
       <c r="N110" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O110" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O110" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P110" s="20" t="str">
@@ -12035,21 +12045,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T110" s="22">
+      <c r="T110">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U110" s="22">
+        <f t="shared" si="45"/>
         <v>39802</v>
       </c>
-      <c r="U110" t="str">
+      <c r="V110" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W110" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V110" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W110">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
@@ -12105,11 +12115,11 @@
         <v/>
       </c>
       <c r="N111" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O111" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O111" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P111" s="20" t="str">
@@ -12128,21 +12138,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T111" s="22">
+      <c r="T111">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U111" s="22">
+        <f t="shared" si="45"/>
         <v>40162</v>
       </c>
-      <c r="U111" t="str">
+      <c r="V111" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W111" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V111" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W111">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
@@ -12198,11 +12208,11 @@
         <v>40522</v>
       </c>
       <c r="N112">
+        <f t="shared" si="43"/>
+        <v>30</v>
+      </c>
+      <c r="O112" t="str">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="O112" t="str">
-        <f t="shared" si="45"/>
         <v>甲午</v>
       </c>
       <c r="P112" s="20" t="str">
@@ -12221,21 +12231,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T112" s="22">
+      <c r="T112">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U112" s="22">
+        <f t="shared" si="45"/>
         <v>40522</v>
       </c>
-      <c r="U112" t="str">
+      <c r="V112" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W112" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V112" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W112">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
@@ -12291,11 +12301,11 @@
         <v/>
       </c>
       <c r="N113" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O113" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O113" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P113" s="20" t="str">
@@ -12314,21 +12324,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T113" s="22">
+      <c r="T113">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U113" s="22">
+        <f t="shared" si="45"/>
         <v>40897</v>
       </c>
-      <c r="U113" t="str">
+      <c r="V113" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V113" t="str">
+        <v>45</v>
+      </c>
+      <c r="W113" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W113">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
@@ -12384,11 +12394,11 @@
         <v/>
       </c>
       <c r="N114" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O114" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O114" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P114" s="20">
@@ -12407,21 +12417,21 @@
         <f t="shared" si="39"/>
         <v>己酉</v>
       </c>
-      <c r="T114" s="22">
+      <c r="T114">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U114" s="22">
+        <f t="shared" si="45"/>
         <v>41257</v>
       </c>
-      <c r="U114" t="str">
+      <c r="V114" s="21">
         <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="W114" t="str">
+        <f t="shared" si="42"/>
         <v>己酉</v>
-      </c>
-      <c r="V114" t="str">
-        <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W114">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
@@ -12477,11 +12487,11 @@
         <v/>
       </c>
       <c r="N115" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O115" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O115" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P115" s="20" t="str">
@@ -12500,21 +12510,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T115" s="22">
+      <c r="T115">
         <f t="shared" si="40"/>
-        <v>41617</v>
-      </c>
-      <c r="U115" t="str">
+        <v>1</v>
+      </c>
+      <c r="U115" s="22">
+        <f t="shared" si="45"/>
+        <v>41632</v>
+      </c>
+      <c r="V115" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V115" t="str">
+        <v>0</v>
+      </c>
+      <c r="W115" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W115">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>甲子</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
@@ -12570,11 +12580,11 @@
         <v/>
       </c>
       <c r="N116" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O116" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O116" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P116" s="20" t="str">
@@ -12593,21 +12603,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T116" s="22">
+      <c r="T116">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U116" s="22">
+        <f t="shared" si="45"/>
         <v>41992</v>
       </c>
-      <c r="U116" t="str">
+      <c r="V116" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W116" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V116" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
@@ -12663,11 +12673,11 @@
         <v/>
       </c>
       <c r="N117" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O117" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O117" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P117" s="20">
@@ -12686,21 +12696,21 @@
         <f t="shared" si="39"/>
         <v>甲子</v>
       </c>
-      <c r="T117" s="22">
+      <c r="T117">
         <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="U117" s="22">
+        <f t="shared" si="45"/>
         <v>42352</v>
       </c>
-      <c r="U117" t="str">
+      <c r="V117" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W117" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V117" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <f t="shared" si="43"/>
-        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
@@ -12756,11 +12766,11 @@
         <v/>
       </c>
       <c r="N118" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O118" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O118" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P118" s="20" t="str">
@@ -12779,21 +12789,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T118" s="22">
+      <c r="T118">
         <f t="shared" si="40"/>
-        <v>42712</v>
-      </c>
-      <c r="U118" t="str">
+        <v>1</v>
+      </c>
+      <c r="U118" s="22">
+        <f t="shared" si="45"/>
+        <v>42727</v>
+      </c>
+      <c r="V118" s="21">
         <f t="shared" si="41"/>
-        <v>甲子</v>
-      </c>
-      <c r="V118" t="str">
+        <v>15</v>
+      </c>
+      <c r="W118" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
@@ -12849,11 +12859,11 @@
         <v/>
       </c>
       <c r="N119" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O119" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O119" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P119" s="20" t="str">
@@ -12872,21 +12882,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T119" s="22">
+      <c r="T119">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U119" s="22">
+        <f t="shared" si="45"/>
         <v>43087</v>
       </c>
-      <c r="U119" t="str">
+      <c r="V119" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W119" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V119" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W119">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
@@ -12942,11 +12952,11 @@
         <v>43447</v>
       </c>
       <c r="N120">
+        <f t="shared" si="43"/>
+        <v>15</v>
+      </c>
+      <c r="O120" t="str">
         <f t="shared" si="44"/>
-        <v>15</v>
-      </c>
-      <c r="O120" t="str">
-        <f t="shared" si="45"/>
         <v>己卯</v>
       </c>
       <c r="P120" s="20" t="str">
@@ -12965,21 +12975,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T120" s="22">
+      <c r="T120">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U120" s="22">
+        <f t="shared" si="45"/>
         <v>43447</v>
       </c>
-      <c r="U120" t="str">
+      <c r="V120" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W120" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V120" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W120">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
@@ -13035,11 +13045,11 @@
         <v/>
       </c>
       <c r="N121" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O121" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O121" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P121" s="20" t="str">
@@ -13058,21 +13068,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T121" s="22">
+      <c r="T121">
         <f t="shared" si="40"/>
-        <v>43807</v>
-      </c>
-      <c r="U121" t="str">
+        <v>1</v>
+      </c>
+      <c r="U121" s="22">
+        <f t="shared" si="45"/>
+        <v>43822</v>
+      </c>
+      <c r="V121" s="21">
         <f t="shared" si="41"/>
-        <v>己卯</v>
-      </c>
-      <c r="V121" t="str">
+        <v>30</v>
+      </c>
+      <c r="W121" t="str">
         <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W121">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>甲午</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
@@ -13128,11 +13138,11 @@
         <v/>
       </c>
       <c r="N122" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O122" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O122" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P122" s="20" t="str">
@@ -13151,21 +13161,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T122" s="22">
+      <c r="T122">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U122" s="22">
+        <f t="shared" si="45"/>
         <v>44182</v>
       </c>
-      <c r="U122" t="str">
+      <c r="V122" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W122" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V122" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W122">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
@@ -13221,11 +13231,11 @@
         <v>44542</v>
       </c>
       <c r="N123">
+        <f t="shared" si="43"/>
+        <v>30</v>
+      </c>
+      <c r="O123" t="str">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="O123" t="str">
-        <f t="shared" si="45"/>
         <v>甲午</v>
       </c>
       <c r="P123" s="20" t="str">
@@ -13244,21 +13254,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T123" s="22">
+      <c r="T123">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U123" s="22">
+        <f t="shared" si="45"/>
         <v>44542</v>
       </c>
-      <c r="U123" t="str">
+      <c r="V123" s="21">
         <f t="shared" si="41"/>
+        <v>30</v>
+      </c>
+      <c r="W123" t="str">
+        <f t="shared" si="42"/>
         <v>甲午</v>
-      </c>
-      <c r="V123" t="str">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="W123">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
@@ -13314,11 +13324,11 @@
         <v/>
       </c>
       <c r="N124" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O124" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O124" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P124" s="20" t="str">
@@ -13337,21 +13347,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T124" s="22">
+      <c r="T124">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U124" s="22">
+        <f t="shared" si="45"/>
         <v>44917</v>
       </c>
-      <c r="U124" t="str">
+      <c r="V124" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V124" t="str">
+        <v>45</v>
+      </c>
+      <c r="W124" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W124">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
@@ -13407,11 +13417,11 @@
         <v/>
       </c>
       <c r="N125" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O125" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O125" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P125" s="20" t="str">
@@ -13430,21 +13440,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T125" s="22">
+      <c r="T125">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U125" s="22">
+        <f t="shared" si="45"/>
         <v>45277</v>
       </c>
-      <c r="U125" t="str">
+      <c r="V125" s="21">
         <f t="shared" si="41"/>
-        <v>己西</v>
-      </c>
-      <c r="V125" t="str">
+        <v>45</v>
+      </c>
+      <c r="W125" t="str">
         <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W125">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
@@ -13500,11 +13510,11 @@
         <v>45637</v>
       </c>
       <c r="N126">
+        <f t="shared" si="43"/>
+        <v>45</v>
+      </c>
+      <c r="O126" t="str">
         <f t="shared" si="44"/>
-        <v>45</v>
-      </c>
-      <c r="O126" t="str">
-        <f t="shared" si="45"/>
         <v>己酉</v>
       </c>
       <c r="P126" s="20" t="str">
@@ -13523,21 +13533,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T126" s="22">
+      <c r="T126">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U126" s="22">
+        <f t="shared" si="45"/>
         <v>45637</v>
       </c>
-      <c r="U126" t="str">
+      <c r="V126" s="21">
         <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="W126" t="str">
+        <f t="shared" si="42"/>
         <v>己酉</v>
-      </c>
-      <c r="V126" t="str">
-        <f t="shared" si="42"/>
-        <v>45</v>
-      </c>
-      <c r="W126">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
@@ -13593,11 +13603,11 @@
         <v/>
       </c>
       <c r="N127" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O127" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O127" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P127" s="20" t="str">
@@ -13616,21 +13626,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T127" s="22">
+      <c r="T127">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U127" s="22">
+        <f t="shared" si="45"/>
         <v>46012</v>
       </c>
-      <c r="U127" t="str">
+      <c r="V127" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W127" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V127" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W127">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
@@ -13686,11 +13696,11 @@
         <v/>
       </c>
       <c r="N128" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O128" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O128" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P128" s="20" t="str">
@@ -13709,21 +13719,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T128" s="22">
+      <c r="T128">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U128" s="22">
+        <f t="shared" si="45"/>
         <v>46372</v>
       </c>
-      <c r="U128" t="str">
+      <c r="V128" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W128" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V128" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W128">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
@@ -13779,11 +13789,11 @@
         <v>46732</v>
       </c>
       <c r="N129">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O129" t="str">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O129" t="str">
-        <f t="shared" si="45"/>
         <v>甲子</v>
       </c>
       <c r="P129" s="20" t="str">
@@ -13802,21 +13812,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T129" s="22">
+      <c r="T129">
         <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="U129" s="22">
+        <f t="shared" si="45"/>
         <v>46732</v>
       </c>
-      <c r="U129" t="str">
+      <c r="V129" s="21">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W129" t="str">
+        <f t="shared" si="42"/>
         <v>甲子</v>
-      </c>
-      <c r="V129" t="str">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="W129">
-        <f t="shared" si="43"/>
-        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
@@ -13872,11 +13882,11 @@
         <v/>
       </c>
       <c r="N130" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O130" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O130" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P130" s="20" t="str">
@@ -13895,21 +13905,21 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="T130" s="22">
+      <c r="T130">
         <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="U130" s="22">
+        <f t="shared" si="45"/>
         <v>47107</v>
       </c>
-      <c r="U130" t="str">
+      <c r="V130" s="21">
         <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="W130" t="str">
+        <f t="shared" si="42"/>
         <v>己卯</v>
-      </c>
-      <c r="V130" t="str">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="W130">
-        <f t="shared" si="43"/>
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
@@ -13965,11 +13975,11 @@
         <v/>
       </c>
       <c r="N131" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="O131" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="O131" t="str">
-        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P131" s="20" t="str">
@@ -13988,21 +13998,21 @@
         <f t="shared" ref="S131:S137" si="65">_xlfn.IFS(R131="", "", R131=0, "甲子", R131=15, "己卯", R131=30, "甲午",R131=45, "己酉")</f>
         <v/>
       </c>
-      <c r="T131" s="22">
-        <f t="shared" ref="T131:T150" si="66">VALUE(J131&amp;M131&amp;Q131)</f>
+      <c r="T131">
+        <f t="shared" ref="T131:T150" si="66">_xlfn.IFS(L131 &lt;&gt; "", 1, O131&lt;&gt;"",2,S131&lt;&gt;"", 3)</f>
+        <v>1</v>
+      </c>
+      <c r="U131" s="22">
+        <f t="shared" si="45"/>
         <v>47467</v>
       </c>
-      <c r="U131" t="str">
-        <f t="shared" ref="U131:U150" si="67">L131&amp;O131&amp;S131</f>
+      <c r="V131" s="21">
+        <f t="shared" ref="V131:V150" si="67">IFERROR(MOD(U131-$I$1, 60), "")</f>
+        <v>15</v>
+      </c>
+      <c r="W131" t="str">
+        <f t="shared" ref="W131:W150" si="68">_xlfn.IFS(V131="", "", V131=0, "甲子", V131=15, "己卯", V131=30, "甲午", V131=45, "己酉")</f>
         <v>己卯</v>
-      </c>
-      <c r="V131" t="str">
-        <f t="shared" ref="V131:V150" si="68">K131&amp;N131&amp;R131</f>
-        <v>15</v>
-      </c>
-      <c r="W131">
-        <f t="shared" ref="W131:W150" si="69">_xlfn.IFS(L131 &lt;&gt; "", 1, O131&lt;&gt;"",2,S131&lt;&gt;"", 3)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
@@ -14058,11 +14068,11 @@
         <v>47827</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N150" si="70">IFERROR(MOD(M132-$I$1, 60), "")</f>
+        <f t="shared" ref="N132:N150" si="69">IFERROR(MOD(M132-$I$1, 60), "")</f>
         <v>15</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" ref="O132:O150" si="71">_xlfn.IFS(N132="", "", N132=0, "甲子", N132=15, "己卯", N132=30, "甲午", N132=45, "己酉")</f>
+        <f t="shared" ref="O132:O150" si="70">_xlfn.IFS(N132="", "", N132=0, "甲子", N132=15, "己卯", N132=30, "甲午", N132=45, "己酉")</f>
         <v>己卯</v>
       </c>
       <c r="P132" s="20" t="str">
@@ -14081,21 +14091,21 @@
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="T132" s="22">
+      <c r="T132">
         <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="U132" s="22">
+        <f t="shared" ref="U132:U150" si="71">IF(T131=1, U131+360, U131+375)</f>
         <v>47827</v>
       </c>
-      <c r="U132" t="str">
+      <c r="V132" s="21">
         <f t="shared" si="67"/>
+        <v>15</v>
+      </c>
+      <c r="W132" t="str">
+        <f t="shared" si="68"/>
         <v>己卯</v>
-      </c>
-      <c r="V132" t="str">
-        <f t="shared" si="68"/>
-        <v>15</v>
-      </c>
-      <c r="W132">
-        <f t="shared" si="69"/>
-        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
@@ -14151,11 +14161,11 @@
         <v/>
       </c>
       <c r="N133" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O133" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O133" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P133" s="20" t="str">
@@ -14174,21 +14184,21 @@
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="T133" s="22">
+      <c r="T133">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U133" s="22">
+        <f t="shared" si="71"/>
         <v>48202</v>
       </c>
-      <c r="U133" t="str">
+      <c r="V133" s="21">
         <f t="shared" si="67"/>
+        <v>30</v>
+      </c>
+      <c r="W133" t="str">
+        <f t="shared" si="68"/>
         <v>甲午</v>
-      </c>
-      <c r="V133" t="str">
-        <f t="shared" si="68"/>
-        <v>30</v>
-      </c>
-      <c r="W133">
-        <f t="shared" si="69"/>
-        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
@@ -14244,11 +14254,11 @@
         <v/>
       </c>
       <c r="N134" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O134" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O134" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P134" s="20">
@@ -14267,21 +14277,21 @@
         <f t="shared" si="65"/>
         <v>甲午</v>
       </c>
-      <c r="T134" s="22">
+      <c r="T134">
         <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="U134" s="22">
+        <f t="shared" si="71"/>
         <v>48562</v>
       </c>
-      <c r="U134" t="str">
+      <c r="V134" s="21">
         <f t="shared" si="67"/>
+        <v>30</v>
+      </c>
+      <c r="W134" t="str">
+        <f t="shared" si="68"/>
         <v>甲午</v>
-      </c>
-      <c r="V134" t="str">
-        <f t="shared" si="68"/>
-        <v>30</v>
-      </c>
-      <c r="W134">
-        <f t="shared" si="69"/>
-        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
@@ -14337,11 +14347,11 @@
         <v/>
       </c>
       <c r="N135" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O135" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O135" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P135" s="20" t="str">
@@ -14360,21 +14370,21 @@
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="T135" s="22">
+      <c r="T135">
         <f t="shared" si="66"/>
-        <v>48922</v>
-      </c>
-      <c r="U135" t="str">
+        <v>1</v>
+      </c>
+      <c r="U135" s="22">
+        <f t="shared" si="71"/>
+        <v>48937</v>
+      </c>
+      <c r="V135" s="21">
         <f t="shared" si="67"/>
-        <v>甲午</v>
-      </c>
-      <c r="V135" t="str">
+        <v>45</v>
+      </c>
+      <c r="W135" t="str">
         <f t="shared" si="68"/>
-        <v>30</v>
-      </c>
-      <c r="W135">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
@@ -14430,11 +14440,11 @@
         <v/>
       </c>
       <c r="N136" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O136" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O136" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P136" s="20" t="str">
@@ -14453,21 +14463,21 @@
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="T136" s="22">
+      <c r="T136">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U136" s="22">
+        <f t="shared" si="71"/>
         <v>49297</v>
       </c>
-      <c r="U136" t="str">
+      <c r="V136" s="21">
         <f t="shared" si="67"/>
-        <v>己西</v>
-      </c>
-      <c r="V136" t="str">
+        <v>45</v>
+      </c>
+      <c r="W136" t="str">
         <f t="shared" si="68"/>
-        <v>45</v>
-      </c>
-      <c r="W136">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
@@ -14523,11 +14533,11 @@
         <v/>
       </c>
       <c r="N137" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O137" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O137" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P137" s="20">
@@ -14546,21 +14556,21 @@
         <f t="shared" si="65"/>
         <v>己酉</v>
       </c>
-      <c r="T137" s="22">
+      <c r="T137">
         <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="U137" s="22">
+        <f t="shared" si="71"/>
         <v>49657</v>
       </c>
-      <c r="U137" t="str">
+      <c r="V137" s="21">
         <f t="shared" si="67"/>
+        <v>45</v>
+      </c>
+      <c r="W137" t="str">
+        <f t="shared" si="68"/>
         <v>己酉</v>
-      </c>
-      <c r="V137" t="str">
-        <f t="shared" si="68"/>
-        <v>45</v>
-      </c>
-      <c r="W137">
-        <f t="shared" si="69"/>
-        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
@@ -14616,11 +14626,11 @@
         <v/>
       </c>
       <c r="N138" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O138" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O138" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P138" s="20" t="str">
@@ -14639,21 +14649,21 @@
         <f t="shared" ref="S138:S150" si="75">_xlfn.IFS(R138="", "", R138=0, "甲子", R138=15, "己卯", R138=30, "甲午",R138=45, "己酉")</f>
         <v/>
       </c>
-      <c r="T138" s="22">
+      <c r="T138">
         <f t="shared" si="66"/>
-        <v>50017</v>
-      </c>
-      <c r="U138" t="str">
+        <v>1</v>
+      </c>
+      <c r="U138" s="22">
+        <f t="shared" si="71"/>
+        <v>50032</v>
+      </c>
+      <c r="V138" s="21">
         <f t="shared" si="67"/>
-        <v>己西</v>
-      </c>
-      <c r="V138" t="str">
+        <v>0</v>
+      </c>
+      <c r="W138" t="str">
         <f t="shared" si="68"/>
-        <v>45</v>
-      </c>
-      <c r="W138">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <v>甲子</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
@@ -14709,11 +14719,11 @@
         <v/>
       </c>
       <c r="N139" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O139" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O139" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P139" s="20" t="str">
@@ -14732,21 +14742,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T139" s="22">
+      <c r="T139">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U139" s="22">
+        <f t="shared" si="71"/>
         <v>50392</v>
       </c>
-      <c r="U139" t="str">
+      <c r="V139" s="21">
         <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="W139" t="str">
+        <f t="shared" si="68"/>
         <v>甲子</v>
-      </c>
-      <c r="V139" t="str">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <f t="shared" si="69"/>
-        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
@@ -14802,11 +14812,11 @@
         <v>50752</v>
       </c>
       <c r="N140">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="O140" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="O140" t="str">
-        <f t="shared" si="71"/>
         <v>甲子</v>
       </c>
       <c r="P140" s="20" t="str">
@@ -14825,21 +14835,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T140" s="22">
+      <c r="T140">
         <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="U140" s="22">
+        <f t="shared" si="71"/>
         <v>50752</v>
       </c>
-      <c r="U140" t="str">
+      <c r="V140" s="21">
         <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="W140" t="str">
+        <f t="shared" si="68"/>
         <v>甲子</v>
-      </c>
-      <c r="V140" t="str">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="W140">
-        <f t="shared" si="69"/>
-        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
@@ -14895,11 +14905,11 @@
         <v/>
       </c>
       <c r="N141" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O141" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O141" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P141" s="20" t="str">
@@ -14918,21 +14928,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T141" s="22">
+      <c r="T141">
         <f t="shared" si="66"/>
-        <v>51112</v>
-      </c>
-      <c r="U141" t="str">
+        <v>1</v>
+      </c>
+      <c r="U141" s="22">
+        <f t="shared" si="71"/>
+        <v>51127</v>
+      </c>
+      <c r="V141" s="21">
         <f t="shared" si="67"/>
-        <v>甲子</v>
-      </c>
-      <c r="V141" t="str">
+        <v>15</v>
+      </c>
+      <c r="W141" t="str">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <v>己卯</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
@@ -14988,11 +14998,11 @@
         <v/>
       </c>
       <c r="N142" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O142" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O142" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P142" s="20" t="str">
@@ -15011,21 +15021,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T142" s="22">
+      <c r="T142">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U142" s="22">
+        <f t="shared" si="71"/>
         <v>51487</v>
       </c>
-      <c r="U142" t="str">
+      <c r="V142" s="21">
         <f t="shared" si="67"/>
+        <v>15</v>
+      </c>
+      <c r="W142" t="str">
+        <f t="shared" si="68"/>
         <v>己卯</v>
-      </c>
-      <c r="V142" t="str">
-        <f t="shared" si="68"/>
-        <v>15</v>
-      </c>
-      <c r="W142">
-        <f t="shared" si="69"/>
-        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
@@ -15081,11 +15091,11 @@
         <v>51847</v>
       </c>
       <c r="N143">
+        <f t="shared" si="69"/>
+        <v>15</v>
+      </c>
+      <c r="O143" t="str">
         <f t="shared" si="70"/>
-        <v>15</v>
-      </c>
-      <c r="O143" t="str">
-        <f t="shared" si="71"/>
         <v>己卯</v>
       </c>
       <c r="P143" s="20" t="str">
@@ -15104,21 +15114,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T143" s="22">
+      <c r="T143">
         <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="U143" s="22">
+        <f t="shared" si="71"/>
         <v>51847</v>
       </c>
-      <c r="U143" t="str">
+      <c r="V143" s="21">
         <f t="shared" si="67"/>
+        <v>15</v>
+      </c>
+      <c r="W143" t="str">
+        <f t="shared" si="68"/>
         <v>己卯</v>
-      </c>
-      <c r="V143" t="str">
-        <f t="shared" si="68"/>
-        <v>15</v>
-      </c>
-      <c r="W143">
-        <f t="shared" si="69"/>
-        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
@@ -15174,11 +15184,11 @@
         <v/>
       </c>
       <c r="N144" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O144" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O144" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P144" s="20" t="str">
@@ -15197,21 +15207,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T144" s="22">
+      <c r="T144">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U144" s="22">
+        <f t="shared" si="71"/>
         <v>52222</v>
       </c>
-      <c r="U144" t="str">
+      <c r="V144" s="21">
         <f t="shared" si="67"/>
+        <v>30</v>
+      </c>
+      <c r="W144" t="str">
+        <f t="shared" si="68"/>
         <v>甲午</v>
-      </c>
-      <c r="V144" t="str">
-        <f t="shared" si="68"/>
-        <v>30</v>
-      </c>
-      <c r="W144">
-        <f t="shared" si="69"/>
-        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
@@ -15267,11 +15277,11 @@
         <v/>
       </c>
       <c r="N145" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O145" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O145" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P145" s="20" t="str">
@@ -15290,21 +15300,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T145" s="22">
+      <c r="T145">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U145" s="22">
+        <f t="shared" si="71"/>
         <v>52582</v>
       </c>
-      <c r="U145" t="str">
+      <c r="V145" s="21">
         <f t="shared" si="67"/>
+        <v>30</v>
+      </c>
+      <c r="W145" t="str">
+        <f t="shared" si="68"/>
         <v>甲午</v>
-      </c>
-      <c r="V145" t="str">
-        <f t="shared" si="68"/>
-        <v>30</v>
-      </c>
-      <c r="W145">
-        <f t="shared" si="69"/>
-        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
@@ -15360,11 +15370,11 @@
         <v>52942</v>
       </c>
       <c r="N146">
+        <f t="shared" si="69"/>
+        <v>30</v>
+      </c>
+      <c r="O146" t="str">
         <f t="shared" si="70"/>
-        <v>30</v>
-      </c>
-      <c r="O146" t="str">
-        <f t="shared" si="71"/>
         <v>甲午</v>
       </c>
       <c r="P146" s="20" t="str">
@@ -15383,21 +15393,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T146" s="22">
+      <c r="T146">
         <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="U146" s="22">
+        <f t="shared" si="71"/>
         <v>52942</v>
       </c>
-      <c r="U146" t="str">
+      <c r="V146" s="21">
         <f t="shared" si="67"/>
+        <v>30</v>
+      </c>
+      <c r="W146" t="str">
+        <f t="shared" si="68"/>
         <v>甲午</v>
-      </c>
-      <c r="V146" t="str">
-        <f t="shared" si="68"/>
-        <v>30</v>
-      </c>
-      <c r="W146">
-        <f t="shared" si="69"/>
-        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
@@ -15453,11 +15463,11 @@
         <v/>
       </c>
       <c r="N147" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O147" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O147" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P147" s="20" t="str">
@@ -15476,21 +15486,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T147" s="22">
+      <c r="T147">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U147" s="22">
+        <f t="shared" si="71"/>
         <v>53317</v>
       </c>
-      <c r="U147" t="str">
+      <c r="V147" s="21">
         <f t="shared" si="67"/>
-        <v>己西</v>
-      </c>
-      <c r="V147" t="str">
+        <v>45</v>
+      </c>
+      <c r="W147" t="str">
         <f t="shared" si="68"/>
-        <v>45</v>
-      </c>
-      <c r="W147">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
@@ -15546,11 +15556,11 @@
         <v/>
       </c>
       <c r="N148" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O148" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O148" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P148" s="20" t="str">
@@ -15569,21 +15579,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T148" s="22">
+      <c r="T148">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U148" s="22">
+        <f t="shared" si="71"/>
         <v>53677</v>
       </c>
-      <c r="U148" t="str">
+      <c r="V148" s="21">
         <f t="shared" si="67"/>
-        <v>己西</v>
-      </c>
-      <c r="V148" t="str">
+        <v>45</v>
+      </c>
+      <c r="W148" t="str">
         <f t="shared" si="68"/>
-        <v>45</v>
-      </c>
-      <c r="W148">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <v>己酉</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
@@ -15639,11 +15649,11 @@
         <v>54037</v>
       </c>
       <c r="N149">
+        <f t="shared" si="69"/>
+        <v>45</v>
+      </c>
+      <c r="O149" t="str">
         <f t="shared" si="70"/>
-        <v>45</v>
-      </c>
-      <c r="O149" t="str">
-        <f t="shared" si="71"/>
         <v>己酉</v>
       </c>
       <c r="P149" s="20" t="str">
@@ -15662,21 +15672,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T149" s="22">
+      <c r="T149">
         <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="U149" s="22">
+        <f t="shared" si="71"/>
         <v>54037</v>
       </c>
-      <c r="U149" t="str">
+      <c r="V149" s="21">
         <f t="shared" si="67"/>
+        <v>45</v>
+      </c>
+      <c r="W149" t="str">
+        <f t="shared" si="68"/>
         <v>己酉</v>
-      </c>
-      <c r="V149" t="str">
-        <f t="shared" si="68"/>
-        <v>45</v>
-      </c>
-      <c r="W149">
-        <f t="shared" si="69"/>
-        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
@@ -15732,11 +15742,11 @@
         <v/>
       </c>
       <c r="N150" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="O150" t="str">
         <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="O150" t="str">
-        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P150" s="20" t="str">
@@ -15755,21 +15765,21 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="T150" s="22">
+      <c r="T150">
         <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="U150" s="22">
+        <f t="shared" si="71"/>
         <v>54412</v>
       </c>
-      <c r="U150" t="str">
+      <c r="V150" s="21">
         <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="W150" t="str">
+        <f t="shared" si="68"/>
         <v>甲子</v>
-      </c>
-      <c r="V150" t="str">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <f t="shared" si="69"/>
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
